--- a/Data_file/Chart_Of_Account_kyld2.xlsx
+++ b/Data_file/Chart_Of_Account_kyld2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Desktop\Template น้องมุก\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2084,9 +2084,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2094,6 +2091,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -3256,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F723"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3265,7 +3265,7 @@
     <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -3278,10 +3278,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3292,7 +3292,7 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="4" t="b">
@@ -3309,7 +3309,7 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="4" t="b">
@@ -3326,7 +3326,7 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="4" t="b">
@@ -3344,7 +3344,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="4" t="b">
@@ -3361,7 +3361,7 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="b">
@@ -3378,7 +3378,7 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="4" t="b">
@@ -3395,7 +3395,7 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="4" t="b">
@@ -3412,7 +3412,7 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="4" t="b">
@@ -3429,7 +3429,7 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="4" t="b">
@@ -3446,7 +3446,7 @@
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="b">
@@ -3463,7 +3463,7 @@
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="4" t="b">
@@ -3480,7 +3480,7 @@
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="4" t="b">
@@ -3497,7 +3497,7 @@
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="4" t="b">
@@ -3514,7 +3514,7 @@
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="4" t="b">
@@ -3531,7 +3531,7 @@
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="4" t="b">
@@ -3548,7 +3548,7 @@
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="4" t="b">
@@ -3565,7 +3565,7 @@
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="4" t="b">
@@ -3582,7 +3582,7 @@
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="4" t="b">
@@ -3599,7 +3599,7 @@
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="4" t="b">
@@ -3616,7 +3616,7 @@
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C21" s="4" t="b">
@@ -3633,7 +3633,7 @@
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="4" t="b">
@@ -3650,7 +3650,7 @@
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="4" t="b">
@@ -3667,7 +3667,7 @@
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="4" t="b">
@@ -3684,7 +3684,7 @@
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="4" t="b">
@@ -3701,7 +3701,7 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="4" t="b">
@@ -3718,7 +3718,7 @@
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="4" t="b">
@@ -3735,7 +3735,7 @@
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="4" t="b">
@@ -3752,7 +3752,7 @@
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="4" t="b">
@@ -3769,7 +3769,7 @@
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="4" t="b">
@@ -3786,7 +3786,7 @@
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="4" t="b">
@@ -3803,7 +3803,7 @@
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="4" t="b">
@@ -3820,7 +3820,7 @@
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="4" t="b">
@@ -3837,7 +3837,7 @@
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="4" t="b">
@@ -3854,7 +3854,7 @@
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="4" t="b">
@@ -3871,7 +3871,7 @@
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="4" t="b">
@@ -3888,7 +3888,7 @@
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="4" t="b">
@@ -3905,7 +3905,7 @@
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="4" t="b">
@@ -3922,7 +3922,7 @@
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C39" s="4" t="b">
@@ -3939,7 +3939,7 @@
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="4" t="b">
@@ -3956,7 +3956,7 @@
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="4" t="b">
@@ -3973,7 +3973,7 @@
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="4" t="b">
@@ -3990,7 +3990,7 @@
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="4" t="b">
@@ -4007,7 +4007,7 @@
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C44" s="4" t="b">
@@ -4024,7 +4024,7 @@
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="4" t="b">
@@ -4041,7 +4041,7 @@
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="4" t="b">
@@ -4058,7 +4058,7 @@
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="4" t="b">
@@ -4075,7 +4075,7 @@
       <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C48" s="4" t="b">
@@ -4092,7 +4092,7 @@
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C49" s="4" t="b">
@@ -4109,7 +4109,7 @@
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C50" s="4" t="b">
@@ -4124,7 +4124,7 @@
     </row>
     <row r="51" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="4" t="b">
@@ -4141,7 +4141,7 @@
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C52" s="4" t="b">
@@ -4158,7 +4158,7 @@
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="4" t="b">
@@ -4175,7 +4175,7 @@
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="4" t="b">
@@ -4192,7 +4192,7 @@
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="4" t="b">
@@ -4209,7 +4209,7 @@
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="4" t="b">
@@ -4226,7 +4226,7 @@
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="4" t="b">
@@ -4243,7 +4243,7 @@
       <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="4" t="b">
@@ -4260,7 +4260,7 @@
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="4" t="b">
@@ -4277,7 +4277,7 @@
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="4" t="b">
@@ -4294,7 +4294,7 @@
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="4" t="b">
@@ -4311,7 +4311,7 @@
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C62" s="4" t="b">
@@ -4328,7 +4328,7 @@
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C63" s="4" t="b">
@@ -4345,7 +4345,7 @@
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C64" s="4" t="b">
@@ -4362,7 +4362,7 @@
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="4" t="b">
@@ -4379,7 +4379,7 @@
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C66" s="4" t="b">
@@ -4396,7 +4396,7 @@
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="4" t="b">
@@ -4413,7 +4413,7 @@
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C68" s="4" t="b">
@@ -4430,7 +4430,7 @@
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C69" s="4" t="b">
@@ -4447,7 +4447,7 @@
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C70" s="4" t="b">
@@ -4464,7 +4464,7 @@
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C71" s="4" t="b">
@@ -4481,7 +4481,7 @@
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C72" s="4" t="b">
@@ -4498,7 +4498,7 @@
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C73" s="4" t="b">
@@ -4515,7 +4515,7 @@
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C74" s="4" t="b">
@@ -4532,7 +4532,7 @@
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C75" s="4" t="b">
@@ -4549,7 +4549,7 @@
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C76" s="4" t="b">
@@ -4566,7 +4566,7 @@
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C77" s="4" t="b">
@@ -4583,7 +4583,7 @@
       <c r="A78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C78" s="4" t="b">
@@ -4600,7 +4600,7 @@
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C79" s="4" t="b">
@@ -4617,7 +4617,7 @@
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C80" s="4" t="b">
@@ -4634,7 +4634,7 @@
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C81" s="4" t="b">
@@ -4651,7 +4651,7 @@
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C82" s="4" t="b">
@@ -4668,7 +4668,7 @@
       <c r="A83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C83" s="4" t="b">
@@ -4685,7 +4685,7 @@
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C84" s="4" t="b">
@@ -4702,7 +4702,7 @@
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C85" s="4" t="b">
@@ -4719,7 +4719,7 @@
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C86" s="4" t="b">
@@ -4736,7 +4736,7 @@
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C87" s="4" t="b">
@@ -4753,7 +4753,7 @@
       <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C88" s="4" t="b">
@@ -4770,7 +4770,7 @@
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C89" s="4" t="b">
@@ -4787,7 +4787,7 @@
       <c r="A90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C90" s="4" t="b">
@@ -4804,7 +4804,7 @@
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C91" s="4" t="b">
@@ -4821,7 +4821,7 @@
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C92" s="4" t="b">
@@ -4838,7 +4838,7 @@
       <c r="A93" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C93" s="4" t="b">
@@ -4855,7 +4855,7 @@
       <c r="A94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C94" s="4" t="b">
@@ -4872,7 +4872,7 @@
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C95" s="4" t="b">
@@ -4887,7 +4887,7 @@
     </row>
     <row r="96" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C96" s="4" t="b">
@@ -4904,7 +4904,7 @@
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="4" t="b">
@@ -4919,7 +4919,7 @@
     </row>
     <row r="98" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C98" s="4" t="b">
@@ -4936,7 +4936,7 @@
       <c r="A99" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C99" s="4" t="b">
@@ -4951,7 +4951,7 @@
     </row>
     <row r="100" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C100" s="4" t="b">
@@ -4966,7 +4966,7 @@
     </row>
     <row r="101" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="4" t="b">
@@ -4981,7 +4981,7 @@
     </row>
     <row r="102" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C102" s="4" t="b">
@@ -4998,7 +4998,7 @@
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C103" s="4" t="b">
@@ -5015,7 +5015,7 @@
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C104" s="4" t="b">
@@ -5030,7 +5030,7 @@
     </row>
     <row r="105" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="4" t="b">
@@ -5045,7 +5045,7 @@
     </row>
     <row r="106" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C106" s="4" t="b">
@@ -5060,7 +5060,7 @@
     </row>
     <row r="107" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="4" t="b">
@@ -5077,7 +5077,7 @@
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C108" s="4" t="b">
@@ -5094,7 +5094,7 @@
       <c r="A109" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C109" s="4" t="b">
@@ -5111,7 +5111,7 @@
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C110" s="4" t="b">
@@ -5128,7 +5128,7 @@
       <c r="A111" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C111" s="4" t="b">
@@ -5145,7 +5145,7 @@
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="4" t="b">
@@ -5162,7 +5162,7 @@
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C113" s="4" t="b">
@@ -5179,7 +5179,7 @@
       <c r="A114" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C114" s="4" t="b">
@@ -5196,7 +5196,7 @@
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C115" s="4" t="b">
@@ -5213,7 +5213,7 @@
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="4" t="b">
@@ -5230,7 +5230,7 @@
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C117" s="4" t="b">
@@ -5247,7 +5247,7 @@
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C118" s="4" t="b">
@@ -5264,7 +5264,7 @@
       <c r="A119" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C119" s="4" t="b">
@@ -5281,7 +5281,7 @@
       <c r="A120" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C120" s="4" t="b">
@@ -5298,7 +5298,7 @@
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C121" s="4" t="b">
@@ -5315,7 +5315,7 @@
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C122" s="4" t="b">
@@ -5332,7 +5332,7 @@
       <c r="A123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C123" s="4" t="b">
@@ -5349,7 +5349,7 @@
       <c r="A124" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C124" s="4" t="b">
@@ -5366,7 +5366,7 @@
       <c r="A125" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C125" s="4" t="b">
@@ -5383,7 +5383,7 @@
       <c r="A126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C126" s="4" t="b">
@@ -5400,7 +5400,7 @@
       <c r="A127" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C127" s="4" t="b">
@@ -5417,7 +5417,7 @@
       <c r="A128" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="4" t="b">
@@ -5434,7 +5434,7 @@
       <c r="A129" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C129" s="4" t="b">
@@ -5451,7 +5451,7 @@
       <c r="A130" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C130" s="4" t="b">
@@ -5468,7 +5468,7 @@
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C131" s="4" t="b">
@@ -5485,7 +5485,7 @@
       <c r="A132" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C132" s="4" t="b">
@@ -5502,7 +5502,7 @@
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C133" s="4" t="b">
@@ -5519,7 +5519,7 @@
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C134" s="4" t="b">
@@ -5536,7 +5536,7 @@
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C135" s="4" t="b">
@@ -5553,7 +5553,7 @@
       <c r="A136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C136" s="4" t="b">
@@ -5570,7 +5570,7 @@
       <c r="A137" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C137" s="4" t="b">
@@ -5587,7 +5587,7 @@
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C138" s="4" t="b">
@@ -5604,7 +5604,7 @@
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C139" s="4" t="b">
@@ -5621,7 +5621,7 @@
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C140" s="4" t="b">
@@ -5638,7 +5638,7 @@
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C141" s="4" t="b">
@@ -5655,7 +5655,7 @@
       <c r="A142" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C142" s="4" t="b">
@@ -5672,7 +5672,7 @@
       <c r="A143" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C143" s="4" t="b">
@@ -5689,7 +5689,7 @@
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C144" s="4" t="b">
@@ -5706,7 +5706,7 @@
       <c r="A145" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C145" s="4" t="b">
@@ -5723,7 +5723,7 @@
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C146" s="4" t="b">
@@ -5740,7 +5740,7 @@
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C147" s="4" t="b">
@@ -5757,7 +5757,7 @@
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C148" s="4" t="b">
@@ -5774,7 +5774,7 @@
       <c r="A149" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C149" s="4" t="b">
@@ -5791,7 +5791,7 @@
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="4" t="b">
@@ -5808,7 +5808,7 @@
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C151" s="4" t="b">
@@ -5825,7 +5825,7 @@
       <c r="A152" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C152" s="4" t="b">
@@ -5842,7 +5842,7 @@
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C153" s="4" t="b">
@@ -5859,7 +5859,7 @@
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C154" s="4" t="b">
@@ -5876,7 +5876,7 @@
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C155" s="4" t="b">
@@ -5893,7 +5893,7 @@
       <c r="A156" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C156" s="4" t="b">
@@ -5910,7 +5910,7 @@
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C157" s="4" t="b">
@@ -5927,7 +5927,7 @@
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C158" s="4" t="b">
@@ -5944,7 +5944,7 @@
       <c r="A159" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C159" s="4" t="b">
@@ -5961,7 +5961,7 @@
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C160" s="4" t="b">
@@ -5978,7 +5978,7 @@
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C161" s="4" t="b">
@@ -5995,7 +5995,7 @@
       <c r="A162" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C162" s="4" t="b">
@@ -6012,7 +6012,7 @@
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C163" s="4" t="b">
@@ -6029,7 +6029,7 @@
       <c r="A164" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C164" s="4" t="b">
@@ -6046,7 +6046,7 @@
       <c r="A165" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C165" s="4" t="b">
@@ -6063,7 +6063,7 @@
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C166" s="4" t="b">
@@ -6080,7 +6080,7 @@
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C167" s="4" t="b">
@@ -6097,7 +6097,7 @@
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C168" s="4" t="b">
@@ -6114,7 +6114,7 @@
       <c r="A169" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C169" s="4" t="b">
@@ -6131,7 +6131,7 @@
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C170" s="4" t="b">
@@ -6148,7 +6148,7 @@
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C171" s="4" t="b">
@@ -6165,7 +6165,7 @@
       <c r="A172" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C172" s="4" t="b">
@@ -6182,7 +6182,7 @@
       <c r="A173" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C173" s="4" t="b">
@@ -6199,7 +6199,7 @@
       <c r="A174" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C174" s="4" t="b">
@@ -6216,7 +6216,7 @@
       <c r="A175" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C175" s="4" t="b">
@@ -6233,7 +6233,7 @@
       <c r="A176" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C176" s="4" t="b">
@@ -6250,7 +6250,7 @@
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C177" s="4" t="b">
@@ -6267,7 +6267,7 @@
       <c r="A178" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C178" s="4" t="b">
@@ -6284,7 +6284,7 @@
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C179" s="4" t="b">
@@ -6301,7 +6301,7 @@
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="8" t="s">
         <v>240</v>
       </c>
       <c r="C180" s="4" t="b">
@@ -6318,7 +6318,7 @@
       <c r="A181" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C181" s="4" t="b">
@@ -6335,7 +6335,7 @@
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C182" s="4" t="b">
@@ -6352,7 +6352,7 @@
       <c r="A183" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C183" s="4" t="b">
@@ -6369,7 +6369,7 @@
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C184" s="4" t="b">
@@ -6386,7 +6386,7 @@
       <c r="A185" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C185" s="4" t="b">
@@ -6403,7 +6403,7 @@
       <c r="A186" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C186" s="4" t="b">
@@ -6420,7 +6420,7 @@
       <c r="A187" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C187" s="4" t="b">
@@ -6437,7 +6437,7 @@
       <c r="A188" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C188" s="4" t="b">
@@ -6454,7 +6454,7 @@
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C189" s="4" t="b">
@@ -6471,7 +6471,7 @@
       <c r="A190" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C190" s="4" t="b">
@@ -6488,7 +6488,7 @@
       <c r="A191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C191" s="4" t="b">
@@ -6505,7 +6505,7 @@
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C192" s="4" t="b">
@@ -6522,7 +6522,7 @@
       <c r="A193" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C193" s="4" t="b">
@@ -6539,7 +6539,7 @@
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C194" s="4" t="b">
@@ -6556,7 +6556,7 @@
       <c r="A195" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C195" s="4" t="b">
@@ -6573,7 +6573,7 @@
       <c r="A196" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C196" s="4" t="b">
@@ -6590,7 +6590,7 @@
       <c r="A197" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C197" s="4" t="b">
@@ -6607,7 +6607,7 @@
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C198" s="4" t="b">
@@ -6624,7 +6624,7 @@
       <c r="A199" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C199" s="4" t="b">
@@ -6641,7 +6641,7 @@
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C200" s="4" t="b">
@@ -6658,7 +6658,7 @@
       <c r="A201" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C201" s="4" t="b">
@@ -6675,7 +6675,7 @@
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C202" s="4" t="b">
@@ -6692,7 +6692,7 @@
       <c r="A203" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C203" s="4" t="b">
@@ -6709,7 +6709,7 @@
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C204" s="4" t="b">
@@ -6726,7 +6726,7 @@
       <c r="A205" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C205" s="4" t="b">
@@ -6743,7 +6743,7 @@
       <c r="A206" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>258</v>
       </c>
       <c r="C206" s="4" t="b">
@@ -6760,7 +6760,7 @@
       <c r="A207" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C207" s="4" t="b">
@@ -6777,7 +6777,7 @@
       <c r="A208" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C208" s="4" t="b">
@@ -6794,7 +6794,7 @@
       <c r="A209" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C209" s="4" t="b">
@@ -6811,7 +6811,7 @@
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C210" s="4" t="b">
@@ -6828,7 +6828,7 @@
       <c r="A211" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C211" s="4" t="b">
@@ -6845,7 +6845,7 @@
       <c r="A212" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C212" s="4" t="b">
@@ -6862,7 +6862,7 @@
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C213" s="4" t="b">
@@ -6879,7 +6879,7 @@
       <c r="A214" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C214" s="4" t="b">
@@ -6896,7 +6896,7 @@
       <c r="A215" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C215" s="4" t="b">
@@ -6913,7 +6913,7 @@
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C216" s="4" t="b">
@@ -6930,7 +6930,7 @@
       <c r="A217" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C217" s="4" t="b">
@@ -6947,7 +6947,7 @@
       <c r="A218" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C218" s="4" t="b">
@@ -6964,7 +6964,7 @@
       <c r="A219" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C219" s="4" t="b">
@@ -6981,7 +6981,7 @@
       <c r="A220" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C220" s="4" t="b">
@@ -6998,7 +6998,7 @@
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C221" s="4" t="b">
@@ -7015,7 +7015,7 @@
       <c r="A222" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C222" s="4" t="b">
@@ -7032,7 +7032,7 @@
       <c r="A223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>273</v>
       </c>
       <c r="C223" s="4" t="b">
@@ -7049,7 +7049,7 @@
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C224" s="4" t="b">
@@ -7066,7 +7066,7 @@
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C225" s="4" t="b">
@@ -7083,7 +7083,7 @@
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C226" s="4" t="b">
@@ -7100,7 +7100,7 @@
       <c r="A227" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C227" s="4" t="b">
@@ -7117,7 +7117,7 @@
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C228" s="4" t="b">
@@ -7134,7 +7134,7 @@
       <c r="A229" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C229" s="4" t="b">
@@ -7151,7 +7151,7 @@
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C230" s="4" t="b">
@@ -7168,7 +7168,7 @@
       <c r="A231" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C231" s="4" t="b">
@@ -7185,7 +7185,7 @@
       <c r="A232" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C232" s="4" t="b">
@@ -7202,7 +7202,7 @@
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C233" s="4" t="b">
@@ -7219,7 +7219,7 @@
       <c r="A234" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C234" s="4" t="b">
@@ -7236,7 +7236,7 @@
       <c r="A235" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C235" s="4" t="b">
@@ -7253,7 +7253,7 @@
       <c r="A236" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C236" s="4" t="b">
@@ -7270,7 +7270,7 @@
       <c r="A237" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C237" s="4" t="b">
@@ -7287,7 +7287,7 @@
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C238" s="4" t="b">
@@ -7304,7 +7304,7 @@
       <c r="A239" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C239" s="4" t="b">
@@ -7321,7 +7321,7 @@
       <c r="A240" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C240" s="4" t="b">
@@ -7338,7 +7338,7 @@
       <c r="A241" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C241" s="4" t="b">
@@ -7355,7 +7355,7 @@
       <c r="A242" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C242" s="4" t="b">
@@ -7372,7 +7372,7 @@
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C243" s="4" t="b">
@@ -7389,7 +7389,7 @@
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C244" s="4" t="b">
@@ -7406,7 +7406,7 @@
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>293</v>
       </c>
       <c r="C245" s="4" t="b">
@@ -7423,7 +7423,7 @@
       <c r="A246" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C246" s="4" t="b">
@@ -7440,7 +7440,7 @@
       <c r="A247" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C247" s="4" t="b">
@@ -7457,7 +7457,7 @@
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C248" s="4" t="b">
@@ -7474,7 +7474,7 @@
       <c r="A249" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C249" s="4" t="b">
@@ -7491,7 +7491,7 @@
       <c r="A250" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C250" s="4" t="b">
@@ -7508,7 +7508,7 @@
       <c r="A251" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C251" s="4" t="b">
@@ -7525,7 +7525,7 @@
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C252" s="4" t="b">
@@ -7542,7 +7542,7 @@
       <c r="A253" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C253" s="4" t="b">
@@ -7559,7 +7559,7 @@
       <c r="A254" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C254" s="4" t="b">
@@ -7576,7 +7576,7 @@
       <c r="A255" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C255" s="4" t="b">
@@ -7593,7 +7593,7 @@
       <c r="A256" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C256" s="4" t="b">
@@ -7610,7 +7610,7 @@
       <c r="A257" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="8" t="s">
         <v>303</v>
       </c>
       <c r="C257" s="4" t="b">
@@ -7627,7 +7627,7 @@
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C258" s="4" t="b">
@@ -7644,7 +7644,7 @@
       <c r="A259" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C259" s="4" t="b">
@@ -7661,7 +7661,7 @@
       <c r="A260" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C260" s="4" t="b">
@@ -7678,7 +7678,7 @@
       <c r="A261" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C261" s="4" t="b">
@@ -7695,7 +7695,7 @@
       <c r="A262" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C262" s="4" t="b">
@@ -7712,7 +7712,7 @@
       <c r="A263" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C263" s="4" t="b">
@@ -7729,7 +7729,7 @@
       <c r="A264" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C264" s="4" t="b">
@@ -7746,7 +7746,7 @@
       <c r="A265" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C265" s="4" t="b">
@@ -7763,7 +7763,7 @@
       <c r="A266" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="8" t="s">
         <v>312</v>
       </c>
       <c r="C266" s="4" t="b">
@@ -7780,7 +7780,7 @@
       <c r="A267" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C267" s="4" t="b">
@@ -7797,7 +7797,7 @@
       <c r="A268" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C268" s="4" t="b">
@@ -7814,7 +7814,7 @@
       <c r="A269" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C269" s="4" t="b">
@@ -7831,7 +7831,7 @@
       <c r="A270" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C270" s="4" t="b">
@@ -7848,7 +7848,7 @@
       <c r="A271" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="8" t="s">
         <v>315</v>
       </c>
       <c r="C271" s="4" t="b">
@@ -7865,7 +7865,7 @@
       <c r="A272" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C272" s="4" t="b">
@@ -7882,7 +7882,7 @@
       <c r="A273" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="8" t="s">
         <v>317</v>
       </c>
       <c r="C273" s="4" t="b">
@@ -7899,7 +7899,7 @@
       <c r="A274" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="8" t="s">
         <v>318</v>
       </c>
       <c r="C274" s="4" t="b">
@@ -7916,7 +7916,7 @@
       <c r="A275" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>319</v>
       </c>
       <c r="C275" s="4" t="b">
@@ -7933,7 +7933,7 @@
       <c r="A276" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C276" s="4" t="b">
@@ -7950,7 +7950,7 @@
       <c r="A277" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="8" t="s">
         <v>321</v>
       </c>
       <c r="C277" s="4" t="b">
@@ -7967,7 +7967,7 @@
       <c r="A278" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C278" s="4" t="b">
@@ -7984,7 +7984,7 @@
       <c r="A279" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="8" t="s">
         <v>323</v>
       </c>
       <c r="C279" s="4" t="b">
@@ -8001,7 +8001,7 @@
       <c r="A280" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C280" s="4" t="b">
@@ -8018,7 +8018,7 @@
       <c r="A281" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C281" s="4" t="b">
@@ -8035,7 +8035,7 @@
       <c r="A282" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C282" s="4" t="b">
@@ -8052,7 +8052,7 @@
       <c r="A283" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C283" s="4" t="b">
@@ -8069,7 +8069,7 @@
       <c r="A284" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="8" t="s">
         <v>328</v>
       </c>
       <c r="C284" s="4" t="b">
@@ -8086,7 +8086,7 @@
       <c r="A285" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C285" s="4" t="b">
@@ -8103,7 +8103,7 @@
       <c r="A286" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C286" s="4" t="b">
@@ -8120,7 +8120,7 @@
       <c r="A287" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C287" s="4" t="b">
@@ -8137,7 +8137,7 @@
       <c r="A288" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C288" s="4" t="b">
@@ -8154,7 +8154,7 @@
       <c r="A289" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C289" s="4" t="b">
@@ -8171,7 +8171,7 @@
       <c r="A290" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C290" s="4" t="b">
@@ -8188,7 +8188,7 @@
       <c r="A291" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="8" t="s">
         <v>333</v>
       </c>
       <c r="C291" s="4" t="b">
@@ -8205,7 +8205,7 @@
       <c r="A292" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C292" s="4" t="b">
@@ -8222,7 +8222,7 @@
       <c r="A293" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C293" s="4" t="b">
@@ -8239,7 +8239,7 @@
       <c r="A294" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="8" t="s">
         <v>334</v>
       </c>
       <c r="C294" s="4" t="b">
@@ -8256,7 +8256,7 @@
       <c r="A295" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="8" t="s">
         <v>335</v>
       </c>
       <c r="C295" s="4" t="b">
@@ -8273,7 +8273,7 @@
       <c r="A296" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="8" t="s">
         <v>336</v>
       </c>
       <c r="C296" s="4" t="b">
@@ -8290,7 +8290,7 @@
       <c r="A297" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="8" t="s">
         <v>337</v>
       </c>
       <c r="C297" s="4" t="b">
@@ -8307,7 +8307,7 @@
       <c r="A298" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C298" s="4" t="b">
@@ -8324,7 +8324,7 @@
       <c r="A299" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="8" t="s">
         <v>335</v>
       </c>
       <c r="C299" s="4" t="b">
@@ -8341,7 +8341,7 @@
       <c r="A300" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C300" s="4" t="b">
@@ -8358,7 +8358,7 @@
       <c r="A301" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C301" s="4" t="b">
@@ -8375,7 +8375,7 @@
       <c r="A302" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C302" s="4" t="b">
@@ -8392,7 +8392,7 @@
       <c r="A303" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C303" s="4" t="b">
@@ -8409,7 +8409,7 @@
       <c r="A304" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="8" t="s">
         <v>341</v>
       </c>
       <c r="C304" s="4" t="b">
@@ -8426,7 +8426,7 @@
       <c r="A305" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="8" t="s">
         <v>342</v>
       </c>
       <c r="C305" s="4" t="b">
@@ -8443,7 +8443,7 @@
       <c r="A306" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C306" s="4" t="b">
@@ -8460,7 +8460,7 @@
       <c r="A307" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C307" s="4" t="b">
@@ -8477,7 +8477,7 @@
       <c r="A308" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="8" t="s">
         <v>345</v>
       </c>
       <c r="C308" s="4" t="b">
@@ -8494,7 +8494,7 @@
       <c r="A309" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="8" t="s">
         <v>346</v>
       </c>
       <c r="C309" s="4" t="b">
@@ -8511,7 +8511,7 @@
       <c r="A310" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="8" t="s">
         <v>347</v>
       </c>
       <c r="C310" s="4" t="b">
@@ -8528,7 +8528,7 @@
       <c r="A311" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="8" t="s">
         <v>348</v>
       </c>
       <c r="C311" s="4" t="b">
@@ -8545,7 +8545,7 @@
       <c r="A312" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="8" t="s">
         <v>349</v>
       </c>
       <c r="C312" s="4" t="b">
@@ -8562,7 +8562,7 @@
       <c r="A313" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C313" s="4" t="b">
@@ -8579,7 +8579,7 @@
       <c r="A314" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="8" t="s">
         <v>351</v>
       </c>
       <c r="C314" s="4" t="b">
@@ -8596,7 +8596,7 @@
       <c r="A315" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C315" s="4" t="b">
@@ -8613,7 +8613,7 @@
       <c r="A316" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="8" t="s">
         <v>352</v>
       </c>
       <c r="C316" s="4" t="b">
@@ -8630,7 +8630,7 @@
       <c r="A317" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="8" t="s">
         <v>353</v>
       </c>
       <c r="C317" s="4" t="b">
@@ -8647,7 +8647,7 @@
       <c r="A318" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="8" t="s">
         <v>354</v>
       </c>
       <c r="C318" s="4" t="b">
@@ -8664,7 +8664,7 @@
       <c r="A319" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C319" s="4" t="b">
@@ -8681,7 +8681,7 @@
       <c r="A320" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C320" s="4" t="b">
@@ -8698,7 +8698,7 @@
       <c r="A321" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C321" s="4" t="b">
@@ -8715,7 +8715,7 @@
       <c r="A322" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="8" t="s">
         <v>358</v>
       </c>
       <c r="C322" s="4" t="b">
@@ -8732,7 +8732,7 @@
       <c r="A323" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C323" s="4" t="b">
@@ -8749,7 +8749,7 @@
       <c r="A324" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C324" s="4" t="b">
@@ -8766,7 +8766,7 @@
       <c r="A325" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="8" t="s">
         <v>359</v>
       </c>
       <c r="C325" s="4" t="b">
@@ -8783,7 +8783,7 @@
       <c r="A326" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B326" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C326" s="4" t="b">
@@ -8800,7 +8800,7 @@
       <c r="A327" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C327" s="4" t="b">
@@ -8817,7 +8817,7 @@
       <c r="A328" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="8" t="s">
         <v>362</v>
       </c>
       <c r="C328" s="4" t="b">
@@ -8834,7 +8834,7 @@
       <c r="A329" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C329" s="4" t="b">
@@ -8851,7 +8851,7 @@
       <c r="A330" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="8" t="s">
         <v>364</v>
       </c>
       <c r="C330" s="4" t="b">
@@ -8868,7 +8868,7 @@
       <c r="A331" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="8" t="s">
         <v>365</v>
       </c>
       <c r="C331" s="4" t="b">
@@ -8885,7 +8885,7 @@
       <c r="A332" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C332" s="4" t="b">
@@ -8902,7 +8902,7 @@
       <c r="A333" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B333" s="8" t="s">
         <v>367</v>
       </c>
       <c r="C333" s="4" t="b">
@@ -8919,7 +8919,7 @@
       <c r="A334" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="8" t="s">
         <v>368</v>
       </c>
       <c r="C334" s="4" t="b">
@@ -8936,7 +8936,7 @@
       <c r="A335" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C335" s="4" t="b">
@@ -8953,7 +8953,7 @@
       <c r="A336" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="8" t="s">
         <v>370</v>
       </c>
       <c r="C336" s="4" t="b">
@@ -8970,7 +8970,7 @@
       <c r="A337" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="8" t="s">
         <v>371</v>
       </c>
       <c r="C337" s="4" t="b">
@@ -8987,7 +8987,7 @@
       <c r="A338" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="8" t="s">
         <v>372</v>
       </c>
       <c r="C338" s="4" t="b">
@@ -9004,7 +9004,7 @@
       <c r="A339" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="8" t="s">
         <v>373</v>
       </c>
       <c r="C339" s="4" t="b">
@@ -9021,7 +9021,7 @@
       <c r="A340" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C340" s="4" t="b">
@@ -9038,13 +9038,13 @@
       <c r="A341" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="8" t="s">
         <v>374</v>
       </c>
       <c r="C341" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D341" s="7">
+      <c r="D341" s="6">
         <v>511000</v>
       </c>
       <c r="E341" s="3" t="s">
@@ -9055,13 +9055,13 @@
       <c r="A342" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="8" t="s">
         <v>375</v>
       </c>
       <c r="C342" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D342" s="7">
+      <c r="D342" s="6">
         <v>511100</v>
       </c>
       <c r="E342" s="1" t="s">
@@ -9072,13 +9072,13 @@
       <c r="A343" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="8" t="s">
         <v>376</v>
       </c>
       <c r="C343" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D343" s="7">
+      <c r="D343" s="6">
         <v>511101</v>
       </c>
       <c r="E343" s="1" t="s">
@@ -9089,13 +9089,13 @@
       <c r="A344" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="8" t="s">
         <v>377</v>
       </c>
       <c r="C344" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D344" s="7">
+      <c r="D344" s="6">
         <v>511102</v>
       </c>
       <c r="E344" s="1" t="s">
@@ -9106,13 +9106,13 @@
       <c r="A345" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="8" t="s">
         <v>378</v>
       </c>
       <c r="C345" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D345" s="7">
+      <c r="D345" s="6">
         <v>511103</v>
       </c>
       <c r="E345" s="1" t="s">
@@ -9123,13 +9123,13 @@
       <c r="A346" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="8" t="s">
         <v>379</v>
       </c>
       <c r="C346" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D346" s="7">
+      <c r="D346" s="6">
         <v>511105</v>
       </c>
       <c r="E346" s="1" t="s">
@@ -9140,13 +9140,13 @@
       <c r="A347" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="8" t="s">
         <v>380</v>
       </c>
       <c r="C347" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D347" s="7">
+      <c r="D347" s="6">
         <v>511106</v>
       </c>
       <c r="E347" s="1" t="s">
@@ -9157,13 +9157,13 @@
       <c r="A348" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="8" t="s">
         <v>381</v>
       </c>
       <c r="C348" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D348" s="7">
+      <c r="D348" s="6">
         <v>511107</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -9174,13 +9174,13 @@
       <c r="A349" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="8" t="s">
         <v>382</v>
       </c>
       <c r="C349" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D349" s="7">
+      <c r="D349" s="6">
         <v>511111</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -9191,13 +9191,13 @@
       <c r="A350" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="8" t="s">
         <v>383</v>
       </c>
       <c r="C350" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D350" s="7">
+      <c r="D350" s="6">
         <v>511112</v>
       </c>
       <c r="E350" s="1" t="s">
@@ -9208,13 +9208,13 @@
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="8" t="s">
         <v>384</v>
       </c>
       <c r="C351" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D351" s="7">
+      <c r="D351" s="6">
         <v>511113</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -9225,13 +9225,13 @@
       <c r="A352" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="8" t="s">
         <v>385</v>
       </c>
       <c r="C352" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D352" s="7">
+      <c r="D352" s="6">
         <v>511114</v>
       </c>
       <c r="E352" s="1" t="s">
@@ -9242,13 +9242,13 @@
       <c r="A353" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="8" t="s">
         <v>386</v>
       </c>
       <c r="C353" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D353" s="7">
+      <c r="D353" s="6">
         <v>511120</v>
       </c>
       <c r="E353" s="1" t="s">
@@ -9259,13 +9259,13 @@
       <c r="A354" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="8" t="s">
         <v>387</v>
       </c>
       <c r="C354" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D354" s="7">
+      <c r="D354" s="6">
         <v>511121</v>
       </c>
       <c r="E354" s="1" t="s">
@@ -9276,13 +9276,13 @@
       <c r="A355" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B355" s="9" t="s">
+      <c r="B355" s="8" t="s">
         <v>388</v>
       </c>
       <c r="C355" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D355" s="7">
+      <c r="D355" s="6">
         <v>511122</v>
       </c>
       <c r="E355" s="1" t="s">
@@ -9293,13 +9293,13 @@
       <c r="A356" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="8" t="s">
         <v>389</v>
       </c>
       <c r="C356" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D356" s="7">
+      <c r="D356" s="6">
         <v>511123</v>
       </c>
       <c r="E356" s="1" t="s">
@@ -9310,13 +9310,13 @@
       <c r="A357" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="8" t="s">
         <v>390</v>
       </c>
       <c r="C357" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D357" s="7">
+      <c r="D357" s="6">
         <v>511124</v>
       </c>
       <c r="E357" s="1" t="s">
@@ -9327,13 +9327,13 @@
       <c r="A358" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C358" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D358" s="7">
+      <c r="D358" s="6">
         <v>511125</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -9344,13 +9344,13 @@
       <c r="A359" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="8" t="s">
         <v>392</v>
       </c>
       <c r="C359" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D359" s="7">
+      <c r="D359" s="6">
         <v>511126</v>
       </c>
       <c r="E359" s="1" t="s">
@@ -9361,13 +9361,13 @@
       <c r="A360" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="8" t="s">
         <v>393</v>
       </c>
       <c r="C360" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D360" s="7">
+      <c r="D360" s="6">
         <v>511150</v>
       </c>
       <c r="E360" s="1" t="s">
@@ -9378,13 +9378,13 @@
       <c r="A361" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="8" t="s">
         <v>394</v>
       </c>
       <c r="C361" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D361" s="7">
+      <c r="D361" s="6">
         <v>511199</v>
       </c>
       <c r="E361" s="1" t="s">
@@ -9395,13 +9395,13 @@
       <c r="A362" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="8" t="s">
         <v>395</v>
       </c>
       <c r="C362" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D362" s="7">
+      <c r="D362" s="6">
         <v>511200</v>
       </c>
       <c r="E362" s="1" t="s">
@@ -9412,13 +9412,13 @@
       <c r="A363" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="8" t="s">
         <v>396</v>
       </c>
       <c r="C363" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D363" s="7">
+      <c r="D363" s="6">
         <v>511201</v>
       </c>
       <c r="E363" s="1" t="s">
@@ -9429,13 +9429,13 @@
       <c r="A364" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="8" t="s">
         <v>397</v>
       </c>
       <c r="C364" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D364" s="7">
+      <c r="D364" s="6">
         <v>511202</v>
       </c>
       <c r="E364" s="1" t="s">
@@ -9446,13 +9446,13 @@
       <c r="A365" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="8" t="s">
         <v>398</v>
       </c>
       <c r="C365" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D365" s="7">
+      <c r="D365" s="6">
         <v>511300</v>
       </c>
       <c r="E365" s="1" t="s">
@@ -9463,13 +9463,13 @@
       <c r="A366" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C366" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D366" s="7">
+      <c r="D366" s="6">
         <v>511320</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -9480,13 +9480,13 @@
       <c r="A367" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C367" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D367" s="7">
+      <c r="D367" s="6">
         <v>511321</v>
       </c>
       <c r="E367" s="1" t="s">
@@ -9497,13 +9497,13 @@
       <c r="A368" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C368" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D368" s="7">
+      <c r="D368" s="6">
         <v>511322</v>
       </c>
       <c r="E368" s="1" t="s">
@@ -9514,13 +9514,13 @@
       <c r="A369" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C369" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D369" s="7">
+      <c r="D369" s="6">
         <v>511323</v>
       </c>
       <c r="E369" s="1" t="s">
@@ -9531,13 +9531,13 @@
       <c r="A370" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C370" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D370" s="7">
+      <c r="D370" s="6">
         <v>511324</v>
       </c>
       <c r="E370" s="1" t="s">
@@ -9548,13 +9548,13 @@
       <c r="A371" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C371" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D371" s="7">
+      <c r="D371" s="6">
         <v>511325</v>
       </c>
       <c r="E371" s="1" t="s">
@@ -9565,13 +9565,13 @@
       <c r="A372" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C372" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D372" s="7">
+      <c r="D372" s="6">
         <v>511326</v>
       </c>
       <c r="E372" s="1" t="s">
@@ -9582,13 +9582,13 @@
       <c r="A373" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="8" t="s">
         <v>399</v>
       </c>
       <c r="C373" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D373" s="7">
+      <c r="D373" s="6">
         <v>511327</v>
       </c>
       <c r="E373" s="1" t="s">
@@ -9599,13 +9599,13 @@
       <c r="A374" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C374" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D374" s="7">
+      <c r="D374" s="6">
         <v>511328</v>
       </c>
       <c r="E374" s="1" t="s">
@@ -9616,13 +9616,13 @@
       <c r="A375" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="8" t="s">
         <v>400</v>
       </c>
       <c r="C375" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D375" s="7">
+      <c r="D375" s="6">
         <v>511400</v>
       </c>
       <c r="E375" s="1" t="s">
@@ -9633,13 +9633,13 @@
       <c r="A376" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="8" t="s">
         <v>401</v>
       </c>
       <c r="C376" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D376" s="7">
+      <c r="D376" s="6">
         <v>511500</v>
       </c>
       <c r="E376" s="1" t="s">
@@ -9650,13 +9650,13 @@
       <c r="A377" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C377" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D377" s="7">
+      <c r="D377" s="6">
         <v>511501</v>
       </c>
       <c r="E377" s="1" t="s">
@@ -9667,13 +9667,13 @@
       <c r="A378" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="8" t="s">
         <v>402</v>
       </c>
       <c r="C378" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D378" s="7">
+      <c r="D378" s="6">
         <v>511502</v>
       </c>
       <c r="E378" s="1" t="s">
@@ -9684,13 +9684,13 @@
       <c r="A379" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="8" t="s">
         <v>403</v>
       </c>
       <c r="C379" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D379" s="7">
+      <c r="D379" s="6">
         <v>511503</v>
       </c>
       <c r="E379" s="1" t="s">
@@ -9701,13 +9701,13 @@
       <c r="A380" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="8" t="s">
         <v>404</v>
       </c>
       <c r="C380" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D380" s="7">
+      <c r="D380" s="6">
         <v>511505</v>
       </c>
       <c r="E380" s="1" t="s">
@@ -9718,13 +9718,13 @@
       <c r="A381" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="8" t="s">
         <v>405</v>
       </c>
       <c r="C381" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D381" s="7">
+      <c r="D381" s="6">
         <v>511599</v>
       </c>
       <c r="E381" s="1" t="s">
@@ -9735,13 +9735,13 @@
       <c r="A382" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="8" t="s">
         <v>406</v>
       </c>
       <c r="C382" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D382" s="7">
+      <c r="D382" s="6">
         <v>512000</v>
       </c>
       <c r="E382" s="1" t="s">
@@ -9752,13 +9752,13 @@
       <c r="A383" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="8" t="s">
         <v>407</v>
       </c>
       <c r="C383" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D383" s="7">
+      <c r="D383" s="6">
         <v>512100</v>
       </c>
       <c r="E383" s="1" t="s">
@@ -9769,13 +9769,13 @@
       <c r="A384" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="8" t="s">
         <v>408</v>
       </c>
       <c r="C384" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D384" s="7">
+      <c r="D384" s="6">
         <v>512101</v>
       </c>
       <c r="E384" s="1" t="s">
@@ -9786,13 +9786,13 @@
       <c r="A385" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="8" t="s">
         <v>409</v>
       </c>
       <c r="C385" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D385" s="7">
+      <c r="D385" s="6">
         <v>512102</v>
       </c>
       <c r="E385" s="1" t="s">
@@ -9803,13 +9803,13 @@
       <c r="A386" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="8" t="s">
         <v>410</v>
       </c>
       <c r="C386" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D386" s="7">
+      <c r="D386" s="6">
         <v>512103</v>
       </c>
       <c r="E386" s="1" t="s">
@@ -9820,13 +9820,13 @@
       <c r="A387" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="8" t="s">
         <v>411</v>
       </c>
       <c r="C387" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D387" s="7">
+      <c r="D387" s="6">
         <v>512104</v>
       </c>
       <c r="E387" s="1" t="s">
@@ -9837,13 +9837,13 @@
       <c r="A388" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C388" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D388" s="7">
+      <c r="D388" s="6">
         <v>512105</v>
       </c>
       <c r="E388" s="1" t="s">
@@ -9854,13 +9854,13 @@
       <c r="A389" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="8" t="s">
         <v>413</v>
       </c>
       <c r="C389" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D389" s="7">
+      <c r="D389" s="6">
         <v>512106</v>
       </c>
       <c r="E389" s="1" t="s">
@@ -9871,13 +9871,13 @@
       <c r="A390" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="8" t="s">
         <v>414</v>
       </c>
       <c r="C390" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D390" s="7">
+      <c r="D390" s="6">
         <v>512107</v>
       </c>
       <c r="E390" s="1" t="s">
@@ -9888,13 +9888,13 @@
       <c r="A391" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C391" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D391" s="7">
+      <c r="D391" s="6">
         <v>512108</v>
       </c>
       <c r="E391" s="1" t="s">
@@ -9905,13 +9905,13 @@
       <c r="A392" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="8" t="s">
         <v>416</v>
       </c>
       <c r="C392" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D392" s="7">
+      <c r="D392" s="6">
         <v>512109</v>
       </c>
       <c r="E392" s="1" t="s">
@@ -9922,13 +9922,13 @@
       <c r="A393" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="8" t="s">
         <v>417</v>
       </c>
       <c r="C393" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D393" s="7">
+      <c r="D393" s="6">
         <v>512199</v>
       </c>
       <c r="E393" s="1" t="s">
@@ -9939,13 +9939,13 @@
       <c r="A394" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="8" t="s">
         <v>418</v>
       </c>
       <c r="C394" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D394" s="7">
+      <c r="D394" s="6">
         <v>512200</v>
       </c>
       <c r="E394" s="1" t="s">
@@ -9956,13 +9956,13 @@
       <c r="A395" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="8" t="s">
         <v>419</v>
       </c>
       <c r="C395" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D395" s="7">
+      <c r="D395" s="6">
         <v>512201</v>
       </c>
       <c r="E395" s="1" t="s">
@@ -9973,13 +9973,13 @@
       <c r="A396" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="8" t="s">
         <v>420</v>
       </c>
       <c r="C396" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D396" s="7">
+      <c r="D396" s="6">
         <v>512202</v>
       </c>
       <c r="E396" s="1" t="s">
@@ -9990,13 +9990,13 @@
       <c r="A397" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="8" t="s">
         <v>421</v>
       </c>
       <c r="C397" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D397" s="7">
+      <c r="D397" s="6">
         <v>512203</v>
       </c>
       <c r="E397" s="1" t="s">
@@ -10007,13 +10007,13 @@
       <c r="A398" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="8" t="s">
         <v>422</v>
       </c>
       <c r="C398" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D398" s="7">
+      <c r="D398" s="6">
         <v>512204</v>
       </c>
       <c r="E398" s="1" t="s">
@@ -10024,13 +10024,13 @@
       <c r="A399" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="8" t="s">
         <v>423</v>
       </c>
       <c r="C399" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D399" s="7">
+      <c r="D399" s="6">
         <v>512205</v>
       </c>
       <c r="E399" s="1" t="s">
@@ -10041,13 +10041,13 @@
       <c r="A400" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="8" t="s">
         <v>424</v>
       </c>
       <c r="C400" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D400" s="7">
+      <c r="D400" s="6">
         <v>512206</v>
       </c>
       <c r="E400" s="1" t="s">
@@ -10058,13 +10058,13 @@
       <c r="A401" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="8" t="s">
         <v>425</v>
       </c>
       <c r="C401" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D401" s="7">
+      <c r="D401" s="6">
         <v>512300</v>
       </c>
       <c r="E401" s="1" t="s">
@@ -10075,13 +10075,13 @@
       <c r="A402" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="8" t="s">
         <v>426</v>
       </c>
       <c r="C402" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D402" s="7">
+      <c r="D402" s="6">
         <v>512301</v>
       </c>
       <c r="E402" s="1" t="s">
@@ -10092,13 +10092,13 @@
       <c r="A403" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="8" t="s">
         <v>427</v>
       </c>
       <c r="C403" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D403" s="7">
+      <c r="D403" s="6">
         <v>512302</v>
       </c>
       <c r="E403" s="1" t="s">
@@ -10109,13 +10109,13 @@
       <c r="A404" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="8" t="s">
         <v>428</v>
       </c>
       <c r="C404" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D404" s="7">
+      <c r="D404" s="6">
         <v>512303</v>
       </c>
       <c r="E404" s="1" t="s">
@@ -10126,13 +10126,13 @@
       <c r="A405" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="8" t="s">
         <v>429</v>
       </c>
       <c r="C405" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D405" s="7">
+      <c r="D405" s="6">
         <v>512304</v>
       </c>
       <c r="E405" s="1" t="s">
@@ -10143,13 +10143,13 @@
       <c r="A406" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="8" t="s">
         <v>430</v>
       </c>
       <c r="C406" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D406" s="7">
+      <c r="D406" s="6">
         <v>512305</v>
       </c>
       <c r="E406" s="1" t="s">
@@ -10160,13 +10160,13 @@
       <c r="A407" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="8" t="s">
         <v>431</v>
       </c>
       <c r="C407" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D407" s="7">
+      <c r="D407" s="6">
         <v>512306</v>
       </c>
       <c r="E407" s="1" t="s">
@@ -10177,13 +10177,13 @@
       <c r="A408" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="8" t="s">
         <v>432</v>
       </c>
       <c r="C408" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D408" s="7">
+      <c r="D408" s="6">
         <v>512307</v>
       </c>
       <c r="E408" s="1" t="s">
@@ -10194,13 +10194,13 @@
       <c r="A409" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="8" t="s">
         <v>433</v>
       </c>
       <c r="C409" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D409" s="7">
+      <c r="D409" s="6">
         <v>512309</v>
       </c>
       <c r="E409" s="1" t="s">
@@ -10211,13 +10211,13 @@
       <c r="A410" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="8" t="s">
         <v>434</v>
       </c>
       <c r="C410" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D410" s="7">
+      <c r="D410" s="6">
         <v>512310</v>
       </c>
       <c r="E410" s="1" t="s">
@@ -10228,13 +10228,13 @@
       <c r="A411" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="8" t="s">
         <v>435</v>
       </c>
       <c r="C411" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D411" s="7">
+      <c r="D411" s="6">
         <v>512311</v>
       </c>
       <c r="E411" s="1" t="s">
@@ -10245,13 +10245,13 @@
       <c r="A412" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="8" t="s">
         <v>436</v>
       </c>
       <c r="C412" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D412" s="7">
+      <c r="D412" s="6">
         <v>512312</v>
       </c>
       <c r="E412" s="1" t="s">
@@ -10262,13 +10262,13 @@
       <c r="A413" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="8" t="s">
         <v>437</v>
       </c>
       <c r="C413" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D413" s="7">
+      <c r="D413" s="6">
         <v>512313</v>
       </c>
       <c r="E413" s="1" t="s">
@@ -10279,13 +10279,13 @@
       <c r="A414" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="8" t="s">
         <v>438</v>
       </c>
       <c r="C414" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D414" s="7">
+      <c r="D414" s="6">
         <v>512314</v>
       </c>
       <c r="E414" s="1" t="s">
@@ -10296,13 +10296,13 @@
       <c r="A415" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C415" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D415" s="7">
+      <c r="D415" s="6">
         <v>512315</v>
       </c>
       <c r="E415" s="1" t="s">
@@ -10313,13 +10313,13 @@
       <c r="A416" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="8" t="s">
         <v>440</v>
       </c>
       <c r="C416" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D416" s="7">
+      <c r="D416" s="6">
         <v>512399</v>
       </c>
       <c r="E416" s="1" t="s">
@@ -10330,13 +10330,13 @@
       <c r="A417" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="8" t="s">
         <v>441</v>
       </c>
       <c r="C417" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D417" s="7">
+      <c r="D417" s="6">
         <v>512400</v>
       </c>
       <c r="E417" s="1" t="s">
@@ -10347,13 +10347,13 @@
       <c r="A418" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="8" t="s">
         <v>442</v>
       </c>
       <c r="C418" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D418" s="7">
+      <c r="D418" s="6">
         <v>512401</v>
       </c>
       <c r="E418" s="1" t="s">
@@ -10364,13 +10364,13 @@
       <c r="A419" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="8" t="s">
         <v>443</v>
       </c>
       <c r="C419" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D419" s="7">
+      <c r="D419" s="6">
         <v>512402</v>
       </c>
       <c r="E419" s="1" t="s">
@@ -10381,13 +10381,13 @@
       <c r="A420" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="8" t="s">
         <v>444</v>
       </c>
       <c r="C420" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D420" s="7">
+      <c r="D420" s="6">
         <v>512403</v>
       </c>
       <c r="E420" s="1" t="s">
@@ -10398,13 +10398,13 @@
       <c r="A421" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="8" t="s">
         <v>445</v>
       </c>
       <c r="C421" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D421" s="7">
+      <c r="D421" s="6">
         <v>512404</v>
       </c>
       <c r="E421" s="1" t="s">
@@ -10415,13 +10415,13 @@
       <c r="A422" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="8" t="s">
         <v>446</v>
       </c>
       <c r="C422" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D422" s="7">
+      <c r="D422" s="6">
         <v>512405</v>
       </c>
       <c r="E422" s="1" t="s">
@@ -10432,13 +10432,13 @@
       <c r="A423" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="8" t="s">
         <v>447</v>
       </c>
       <c r="C423" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D423" s="7">
+      <c r="D423" s="6">
         <v>512406</v>
       </c>
       <c r="E423" s="1" t="s">
@@ -10449,13 +10449,13 @@
       <c r="A424" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B424" s="8" t="s">
         <v>448</v>
       </c>
       <c r="C424" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D424" s="7">
+      <c r="D424" s="6">
         <v>512500</v>
       </c>
       <c r="E424" s="1" t="s">
@@ -10466,13 +10466,13 @@
       <c r="A425" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="B425" s="8" t="s">
         <v>449</v>
       </c>
       <c r="C425" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D425" s="7">
+      <c r="D425" s="6">
         <v>512501</v>
       </c>
       <c r="E425" s="1" t="s">
@@ -10483,13 +10483,13 @@
       <c r="A426" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="8" t="s">
         <v>450</v>
       </c>
       <c r="C426" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D426" s="7">
+      <c r="D426" s="6">
         <v>600000</v>
       </c>
       <c r="E426" s="1" t="s">
@@ -10500,13 +10500,13 @@
       <c r="A427" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="8" t="s">
         <v>451</v>
       </c>
       <c r="C427" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D427" s="7">
+      <c r="D427" s="6">
         <v>611000</v>
       </c>
       <c r="E427" s="1" t="s">
@@ -10517,13 +10517,13 @@
       <c r="A428" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="8" t="s">
         <v>452</v>
       </c>
       <c r="C428" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D428" s="7">
+      <c r="D428" s="6">
         <v>611100</v>
       </c>
       <c r="E428" s="1" t="s">
@@ -10534,13 +10534,13 @@
       <c r="A429" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="8" t="s">
         <v>453</v>
       </c>
       <c r="C429" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D429" s="7">
+      <c r="D429" s="6">
         <v>611101</v>
       </c>
       <c r="E429" s="1" t="s">
@@ -10551,13 +10551,13 @@
       <c r="A430" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="8" t="s">
         <v>454</v>
       </c>
       <c r="C430" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D430" s="7">
+      <c r="D430" s="6">
         <v>611102</v>
       </c>
       <c r="E430" s="1" t="s">
@@ -10568,13 +10568,13 @@
       <c r="A431" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="8" t="s">
         <v>455</v>
       </c>
       <c r="C431" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D431" s="7">
+      <c r="D431" s="6">
         <v>611103</v>
       </c>
       <c r="E431" s="1" t="s">
@@ -10585,13 +10585,13 @@
       <c r="A432" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="8" t="s">
         <v>456</v>
       </c>
       <c r="C432" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D432" s="7">
+      <c r="D432" s="6">
         <v>611104</v>
       </c>
       <c r="E432" s="1" t="s">
@@ -10602,13 +10602,13 @@
       <c r="A433" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="8" t="s">
         <v>457</v>
       </c>
       <c r="C433" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D433" s="7">
+      <c r="D433" s="6">
         <v>611105</v>
       </c>
       <c r="E433" s="1" t="s">
@@ -10619,13 +10619,13 @@
       <c r="A434" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="8" t="s">
         <v>458</v>
       </c>
       <c r="C434" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D434" s="7">
+      <c r="D434" s="6">
         <v>611106</v>
       </c>
       <c r="E434" s="1" t="s">
@@ -10636,13 +10636,13 @@
       <c r="A435" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="8" t="s">
         <v>459</v>
       </c>
       <c r="C435" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D435" s="7">
+      <c r="D435" s="6">
         <v>611107</v>
       </c>
       <c r="E435" s="1" t="s">
@@ -10653,13 +10653,13 @@
       <c r="A436" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="8" t="s">
         <v>460</v>
       </c>
       <c r="C436" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D436" s="7">
+      <c r="D436" s="6">
         <v>611108</v>
       </c>
       <c r="E436" s="1" t="s">
@@ -10670,13 +10670,13 @@
       <c r="A437" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="8" t="s">
         <v>461</v>
       </c>
       <c r="C437" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D437" s="7">
+      <c r="D437" s="6">
         <v>611109</v>
       </c>
       <c r="E437" s="1" t="s">
@@ -10687,13 +10687,13 @@
       <c r="A438" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="8" t="s">
         <v>462</v>
       </c>
       <c r="C438" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D438" s="7">
+      <c r="D438" s="6">
         <v>611110</v>
       </c>
       <c r="E438" s="1" t="s">
@@ -10704,13 +10704,13 @@
       <c r="A439" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="8" t="s">
         <v>408</v>
       </c>
       <c r="C439" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D439" s="7">
+      <c r="D439" s="6">
         <v>611111</v>
       </c>
       <c r="E439" s="1" t="s">
@@ -10721,13 +10721,13 @@
       <c r="A440" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="8" t="s">
         <v>409</v>
       </c>
       <c r="C440" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D440" s="7">
+      <c r="D440" s="6">
         <v>611112</v>
       </c>
       <c r="E440" s="1" t="s">
@@ -10738,13 +10738,13 @@
       <c r="A441" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="8" t="s">
         <v>410</v>
       </c>
       <c r="C441" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D441" s="7">
+      <c r="D441" s="6">
         <v>611113</v>
       </c>
       <c r="E441" s="1" t="s">
@@ -10755,13 +10755,13 @@
       <c r="A442" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="8" t="s">
         <v>411</v>
       </c>
       <c r="C442" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D442" s="7">
+      <c r="D442" s="6">
         <v>611114</v>
       </c>
       <c r="E442" s="1" t="s">
@@ -10772,13 +10772,13 @@
       <c r="A443" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C443" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D443" s="7">
+      <c r="D443" s="6">
         <v>611115</v>
       </c>
       <c r="E443" s="1" t="s">
@@ -10789,13 +10789,13 @@
       <c r="A444" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="8" t="s">
         <v>413</v>
       </c>
       <c r="C444" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D444" s="7">
+      <c r="D444" s="6">
         <v>611116</v>
       </c>
       <c r="E444" s="1" t="s">
@@ -10806,13 +10806,13 @@
       <c r="A445" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="8" t="s">
         <v>414</v>
       </c>
       <c r="C445" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D445" s="7">
+      <c r="D445" s="6">
         <v>611117</v>
       </c>
       <c r="E445" s="1" t="s">
@@ -10823,13 +10823,13 @@
       <c r="A446" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C446" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D446" s="7">
+      <c r="D446" s="6">
         <v>611118</v>
       </c>
       <c r="E446" s="1" t="s">
@@ -10840,13 +10840,13 @@
       <c r="A447" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="8" t="s">
         <v>463</v>
       </c>
       <c r="C447" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D447" s="7">
+      <c r="D447" s="6">
         <v>611200</v>
       </c>
       <c r="E447" s="1" t="s">
@@ -10857,13 +10857,13 @@
       <c r="A448" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="8" t="s">
         <v>464</v>
       </c>
       <c r="C448" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D448" s="7">
+      <c r="D448" s="6">
         <v>611201</v>
       </c>
       <c r="E448" s="1" t="s">
@@ -10874,13 +10874,13 @@
       <c r="A449" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="8" t="s">
         <v>465</v>
       </c>
       <c r="C449" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D449" s="7">
+      <c r="D449" s="6">
         <v>611202</v>
       </c>
       <c r="E449" s="1" t="s">
@@ -10891,13 +10891,13 @@
       <c r="A450" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="8" t="s">
         <v>466</v>
       </c>
       <c r="C450" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D450" s="7">
+      <c r="D450" s="6">
         <v>611300</v>
       </c>
       <c r="E450" s="1" t="s">
@@ -10908,13 +10908,13 @@
       <c r="A451" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="8" t="s">
         <v>467</v>
       </c>
       <c r="C451" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D451" s="7">
+      <c r="D451" s="6">
         <v>611301</v>
       </c>
       <c r="E451" s="1" t="s">
@@ -10925,13 +10925,13 @@
       <c r="A452" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C452" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D452" s="7">
+      <c r="D452" s="6">
         <v>611302</v>
       </c>
       <c r="E452" s="1" t="s">
@@ -10942,13 +10942,13 @@
       <c r="A453" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="8" t="s">
         <v>468</v>
       </c>
       <c r="C453" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D453" s="7">
+      <c r="D453" s="6">
         <v>611303</v>
       </c>
       <c r="E453" s="1" t="s">
@@ -10959,13 +10959,13 @@
       <c r="A454" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="8" t="s">
         <v>469</v>
       </c>
       <c r="C454" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D454" s="7">
+      <c r="D454" s="6">
         <v>611304</v>
       </c>
       <c r="E454" s="1" t="s">
@@ -10976,13 +10976,13 @@
       <c r="A455" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="8" t="s">
         <v>470</v>
       </c>
       <c r="C455" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D455" s="7">
+      <c r="D455" s="6">
         <v>611400</v>
       </c>
       <c r="E455" s="1" t="s">
@@ -10993,13 +10993,13 @@
       <c r="A456" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="8" t="s">
         <v>471</v>
       </c>
       <c r="C456" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D456" s="7">
+      <c r="D456" s="6">
         <v>611401</v>
       </c>
       <c r="E456" s="1" t="s">
@@ -11010,13 +11010,13 @@
       <c r="A457" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="8" t="s">
         <v>472</v>
       </c>
       <c r="C457" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D457" s="7">
+      <c r="D457" s="6">
         <v>611402</v>
       </c>
       <c r="E457" s="1" t="s">
@@ -11027,13 +11027,13 @@
       <c r="A458" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="8" t="s">
         <v>473</v>
       </c>
       <c r="C458" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D458" s="7">
+      <c r="D458" s="6">
         <v>611403</v>
       </c>
       <c r="E458" s="1" t="s">
@@ -11044,13 +11044,13 @@
       <c r="A459" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="8" t="s">
         <v>474</v>
       </c>
       <c r="C459" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D459" s="7">
+      <c r="D459" s="6">
         <v>611404</v>
       </c>
       <c r="E459" s="1" t="s">
@@ -11061,13 +11061,13 @@
       <c r="A460" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="8" t="s">
         <v>475</v>
       </c>
       <c r="C460" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D460" s="7">
+      <c r="D460" s="6">
         <v>611405</v>
       </c>
       <c r="E460" s="1" t="s">
@@ -11078,13 +11078,13 @@
       <c r="A461" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C461" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D461" s="7">
+      <c r="D461" s="6">
         <v>611500</v>
       </c>
       <c r="E461" s="1" t="s">
@@ -11095,13 +11095,13 @@
       <c r="A462" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="8" t="s">
         <v>476</v>
       </c>
       <c r="C462" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D462" s="7">
+      <c r="D462" s="6">
         <v>611501</v>
       </c>
       <c r="E462" s="1" t="s">
@@ -11112,13 +11112,13 @@
       <c r="A463" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="8" t="s">
         <v>477</v>
       </c>
       <c r="C463" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D463" s="7">
+      <c r="D463" s="6">
         <v>611502</v>
       </c>
       <c r="E463" s="1" t="s">
@@ -11129,13 +11129,13 @@
       <c r="A464" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="8" t="s">
         <v>478</v>
       </c>
       <c r="C464" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D464" s="7">
+      <c r="D464" s="6">
         <v>611503</v>
       </c>
       <c r="E464" s="1" t="s">
@@ -11146,13 +11146,13 @@
       <c r="A465" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="8" t="s">
         <v>479</v>
       </c>
       <c r="C465" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D465" s="7">
+      <c r="D465" s="6">
         <v>611504</v>
       </c>
       <c r="E465" s="1" t="s">
@@ -11163,13 +11163,13 @@
       <c r="A466" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="8" t="s">
         <v>480</v>
       </c>
       <c r="C466" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D466" s="7">
+      <c r="D466" s="6">
         <v>611505</v>
       </c>
       <c r="E466" s="1" t="s">
@@ -11180,13 +11180,13 @@
       <c r="A467" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="8" t="s">
         <v>481</v>
       </c>
       <c r="C467" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D467" s="7">
+      <c r="D467" s="6">
         <v>611506</v>
       </c>
       <c r="E467" s="1" t="s">
@@ -11197,13 +11197,13 @@
       <c r="A468" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="8" t="s">
         <v>482</v>
       </c>
       <c r="C468" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D468" s="7">
+      <c r="D468" s="6">
         <v>611600</v>
       </c>
       <c r="E468" s="1" t="s">
@@ -11214,13 +11214,13 @@
       <c r="A469" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="8" t="s">
         <v>483</v>
       </c>
       <c r="C469" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D469" s="7">
+      <c r="D469" s="6">
         <v>611601</v>
       </c>
       <c r="E469" s="1" t="s">
@@ -11231,13 +11231,13 @@
       <c r="A470" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="8" t="s">
         <v>484</v>
       </c>
       <c r="C470" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D470" s="7">
+      <c r="D470" s="6">
         <v>611602</v>
       </c>
       <c r="E470" s="1" t="s">
@@ -11248,13 +11248,13 @@
       <c r="A471" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="8" t="s">
         <v>485</v>
       </c>
       <c r="C471" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D471" s="7">
+      <c r="D471" s="6">
         <v>611603</v>
       </c>
       <c r="E471" s="1" t="s">
@@ -11265,13 +11265,13 @@
       <c r="A472" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="8" t="s">
         <v>486</v>
       </c>
       <c r="C472" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D472" s="7">
+      <c r="D472" s="6">
         <v>611700</v>
       </c>
       <c r="E472" s="1" t="s">
@@ -11282,13 +11282,13 @@
       <c r="A473" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="8" t="s">
         <v>487</v>
       </c>
       <c r="C473" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D473" s="7">
+      <c r="D473" s="6">
         <v>611701</v>
       </c>
       <c r="E473" s="1" t="s">
@@ -11299,13 +11299,13 @@
       <c r="A474" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="8" t="s">
         <v>488</v>
       </c>
       <c r="C474" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D474" s="7">
+      <c r="D474" s="6">
         <v>611702</v>
       </c>
       <c r="E474" s="1" t="s">
@@ -11316,13 +11316,13 @@
       <c r="A475" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="8" t="s">
         <v>489</v>
       </c>
       <c r="C475" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D475" s="7">
+      <c r="D475" s="6">
         <v>611704</v>
       </c>
       <c r="E475" s="1" t="s">
@@ -11333,13 +11333,13 @@
       <c r="A476" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="8" t="s">
         <v>490</v>
       </c>
       <c r="C476" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D476" s="7">
+      <c r="D476" s="6">
         <v>611705</v>
       </c>
       <c r="E476" s="1" t="s">
@@ -11350,13 +11350,13 @@
       <c r="A477" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="8" t="s">
         <v>491</v>
       </c>
       <c r="C477" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D477" s="7">
+      <c r="D477" s="6">
         <v>611706</v>
       </c>
       <c r="E477" s="1" t="s">
@@ -11367,13 +11367,13 @@
       <c r="A478" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="8" t="s">
         <v>492</v>
       </c>
       <c r="C478" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D478" s="7">
+      <c r="D478" s="6">
         <v>611720</v>
       </c>
       <c r="E478" s="1" t="s">
@@ -11384,13 +11384,13 @@
       <c r="A479" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="8" t="s">
         <v>493</v>
       </c>
       <c r="C479" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D479" s="7">
+      <c r="D479" s="6">
         <v>611721</v>
       </c>
       <c r="E479" s="1" t="s">
@@ -11401,13 +11401,13 @@
       <c r="A480" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="8" t="s">
         <v>494</v>
       </c>
       <c r="C480" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D480" s="7">
+      <c r="D480" s="6">
         <v>611722</v>
       </c>
       <c r="E480" s="1" t="s">
@@ -11418,13 +11418,13 @@
       <c r="A481" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="8" t="s">
         <v>495</v>
       </c>
       <c r="C481" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D481" s="7">
+      <c r="D481" s="6">
         <v>611725</v>
       </c>
       <c r="E481" s="1" t="s">
@@ -11435,13 +11435,13 @@
       <c r="A482" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="8" t="s">
         <v>496</v>
       </c>
       <c r="C482" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D482" s="7">
+      <c r="D482" s="6">
         <v>611726</v>
       </c>
       <c r="E482" s="1" t="s">
@@ -11452,13 +11452,13 @@
       <c r="A483" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="8" t="s">
         <v>497</v>
       </c>
       <c r="C483" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D483" s="7">
+      <c r="D483" s="6">
         <v>611727</v>
       </c>
       <c r="E483" s="1" t="s">
@@ -11469,13 +11469,13 @@
       <c r="A484" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C484" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D484" s="7">
+      <c r="D484" s="6">
         <v>611728</v>
       </c>
       <c r="E484" s="1" t="s">
@@ -11486,13 +11486,13 @@
       <c r="A485" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C485" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D485" s="7">
+      <c r="D485" s="6">
         <v>611800</v>
       </c>
       <c r="E485" s="1" t="s">
@@ -11503,13 +11503,13 @@
       <c r="A486" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="8" t="s">
         <v>498</v>
       </c>
       <c r="C486" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D486" s="7">
+      <c r="D486" s="6">
         <v>611801</v>
       </c>
       <c r="E486" s="1" t="s">
@@ -11520,13 +11520,13 @@
       <c r="A487" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="8" t="s">
         <v>499</v>
       </c>
       <c r="C487" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D487" s="7">
+      <c r="D487" s="6">
         <v>611803</v>
       </c>
       <c r="E487" s="1" t="s">
@@ -11537,13 +11537,13 @@
       <c r="A488" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C488" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D488" s="7">
+      <c r="D488" s="6">
         <v>611804</v>
       </c>
       <c r="E488" s="1" t="s">
@@ -11554,13 +11554,13 @@
       <c r="A489" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="8" t="s">
         <v>500</v>
       </c>
       <c r="C489" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D489" s="7">
+      <c r="D489" s="6">
         <v>611805</v>
       </c>
       <c r="E489" s="1" t="s">
@@ -11571,13 +11571,13 @@
       <c r="A490" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="8" t="s">
         <v>501</v>
       </c>
       <c r="C490" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D490" s="7">
+      <c r="D490" s="6">
         <v>611806</v>
       </c>
       <c r="E490" s="1" t="s">
@@ -11588,13 +11588,13 @@
       <c r="A491" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="8" t="s">
         <v>502</v>
       </c>
       <c r="C491" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D491" s="7">
+      <c r="D491" s="6">
         <v>611807</v>
       </c>
       <c r="E491" s="1" t="s">
@@ -11605,13 +11605,13 @@
       <c r="A492" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="8" t="s">
         <v>503</v>
       </c>
       <c r="C492" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D492" s="7">
+      <c r="D492" s="6">
         <v>611808</v>
       </c>
       <c r="E492" s="1" t="s">
@@ -11622,13 +11622,13 @@
       <c r="A493" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C493" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D493" s="7">
+      <c r="D493" s="6">
         <v>611809</v>
       </c>
       <c r="E493" s="1" t="s">
@@ -11639,13 +11639,13 @@
       <c r="A494" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="8" t="s">
         <v>504</v>
       </c>
       <c r="C494" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D494" s="7">
+      <c r="D494" s="6">
         <v>611900</v>
       </c>
       <c r="E494" s="1" t="s">
@@ -11656,13 +11656,13 @@
       <c r="A495" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="8" t="s">
         <v>505</v>
       </c>
       <c r="C495" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D495" s="7">
+      <c r="D495" s="6">
         <v>611901</v>
       </c>
       <c r="E495" s="1" t="s">
@@ -11673,13 +11673,13 @@
       <c r="A496" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C496" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D496" s="7">
+      <c r="D496" s="6">
         <v>611902</v>
       </c>
       <c r="E496" s="1" t="s">
@@ -11690,13 +11690,13 @@
       <c r="A497" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="8" t="s">
         <v>506</v>
       </c>
       <c r="C497" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D497" s="7">
+      <c r="D497" s="6">
         <v>611903</v>
       </c>
       <c r="E497" s="1" t="s">
@@ -11707,13 +11707,13 @@
       <c r="A498" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C498" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D498" s="7">
+      <c r="D498" s="6">
         <v>700000</v>
       </c>
       <c r="E498" s="1" t="s">
@@ -11724,13 +11724,13 @@
       <c r="A499" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C499" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D499" s="7">
+      <c r="D499" s="6">
         <v>710000</v>
       </c>
       <c r="E499" s="1" t="s">
@@ -11741,13 +11741,13 @@
       <c r="A500" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C500" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D500" s="7">
+      <c r="D500" s="6">
         <v>711000</v>
       </c>
       <c r="E500" s="1" t="s">
@@ -11758,13 +11758,13 @@
       <c r="A501" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="8" t="s">
         <v>452</v>
       </c>
       <c r="C501" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D501" s="7">
+      <c r="D501" s="6">
         <v>711100</v>
       </c>
       <c r="E501" s="1" t="s">
@@ -11775,13 +11775,13 @@
       <c r="A502" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C502" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D502" s="7">
+      <c r="D502" s="6">
         <v>711101</v>
       </c>
       <c r="E502" s="1" t="s">
@@ -11792,13 +11792,13 @@
       <c r="A503" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="8" t="s">
         <v>509</v>
       </c>
       <c r="C503" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D503" s="7">
+      <c r="D503" s="6">
         <v>711102</v>
       </c>
       <c r="E503" s="1" t="s">
@@ -11809,13 +11809,13 @@
       <c r="A504" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="8" t="s">
         <v>510</v>
       </c>
       <c r="C504" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D504" s="7">
+      <c r="D504" s="6">
         <v>711103</v>
       </c>
       <c r="E504" s="1" t="s">
@@ -11826,13 +11826,13 @@
       <c r="A505" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" s="8" t="s">
         <v>511</v>
       </c>
       <c r="C505" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D505" s="7">
+      <c r="D505" s="6">
         <v>711104</v>
       </c>
       <c r="E505" s="1" t="s">
@@ -11843,13 +11843,13 @@
       <c r="A506" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="8" t="s">
         <v>512</v>
       </c>
       <c r="C506" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D506" s="7">
+      <c r="D506" s="6">
         <v>711105</v>
       </c>
       <c r="E506" s="1" t="s">
@@ -11860,13 +11860,13 @@
       <c r="A507" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="8" t="s">
         <v>513</v>
       </c>
       <c r="C507" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D507" s="7">
+      <c r="D507" s="6">
         <v>711106</v>
       </c>
       <c r="E507" s="1" t="s">
@@ -11877,13 +11877,13 @@
       <c r="A508" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" s="8" t="s">
         <v>514</v>
       </c>
       <c r="C508" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D508" s="7">
+      <c r="D508" s="6">
         <v>711107</v>
       </c>
       <c r="E508" s="1" t="s">
@@ -11894,13 +11894,13 @@
       <c r="A509" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="8" t="s">
         <v>515</v>
       </c>
       <c r="C509" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D509" s="7">
+      <c r="D509" s="6">
         <v>711108</v>
       </c>
       <c r="E509" s="1" t="s">
@@ -11911,13 +11911,13 @@
       <c r="A510" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="8" t="s">
         <v>516</v>
       </c>
       <c r="C510" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D510" s="7">
+      <c r="D510" s="6">
         <v>711109</v>
       </c>
       <c r="E510" s="1" t="s">
@@ -11928,13 +11928,13 @@
       <c r="A511" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" s="8" t="s">
         <v>517</v>
       </c>
       <c r="C511" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D511" s="7">
+      <c r="D511" s="6">
         <v>711110</v>
       </c>
       <c r="E511" s="1" t="s">
@@ -11945,13 +11945,13 @@
       <c r="A512" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="8" t="s">
         <v>518</v>
       </c>
       <c r="C512" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D512" s="7">
+      <c r="D512" s="6">
         <v>711111</v>
       </c>
       <c r="E512" s="1" t="s">
@@ -11962,13 +11962,13 @@
       <c r="A513" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C513" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D513" s="7">
+      <c r="D513" s="6">
         <v>711112</v>
       </c>
       <c r="E513" s="1" t="s">
@@ -11979,13 +11979,13 @@
       <c r="A514" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C514" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D514" s="7">
+      <c r="D514" s="6">
         <v>711200</v>
       </c>
       <c r="E514" s="1" t="s">
@@ -11996,13 +11996,13 @@
       <c r="A515" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="8" t="s">
         <v>501</v>
       </c>
       <c r="C515" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D515" s="7">
+      <c r="D515" s="6">
         <v>711201</v>
       </c>
       <c r="E515" s="1" t="s">
@@ -12013,13 +12013,13 @@
       <c r="A516" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="8" t="s">
         <v>519</v>
       </c>
       <c r="C516" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D516" s="7">
+      <c r="D516" s="6">
         <v>711202</v>
       </c>
       <c r="E516" s="1" t="s">
@@ -12030,13 +12030,13 @@
       <c r="A517" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="8" t="s">
         <v>500</v>
       </c>
       <c r="C517" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D517" s="7">
+      <c r="D517" s="6">
         <v>711203</v>
       </c>
       <c r="E517" s="1" t="s">
@@ -12047,13 +12047,13 @@
       <c r="A518" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="8" t="s">
         <v>520</v>
       </c>
       <c r="C518" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D518" s="7">
+      <c r="D518" s="6">
         <v>711204</v>
       </c>
       <c r="E518" s="1" t="s">
@@ -12064,13 +12064,13 @@
       <c r="A519" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="8" t="s">
         <v>502</v>
       </c>
       <c r="C519" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D519" s="7">
+      <c r="D519" s="6">
         <v>711205</v>
       </c>
       <c r="E519" s="1" t="s">
@@ -12081,13 +12081,13 @@
       <c r="A520" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="8" t="s">
         <v>503</v>
       </c>
       <c r="C520" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D520" s="7">
+      <c r="D520" s="6">
         <v>711206</v>
       </c>
       <c r="E520" s="1" t="s">
@@ -12098,13 +12098,13 @@
       <c r="A521" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="8" t="s">
         <v>521</v>
       </c>
       <c r="C521" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D521" s="7">
+      <c r="D521" s="6">
         <v>711300</v>
       </c>
       <c r="E521" s="1" t="s">
@@ -12115,13 +12115,13 @@
       <c r="A522" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="8" t="s">
         <v>522</v>
       </c>
       <c r="C522" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D522" s="7">
+      <c r="D522" s="6">
         <v>711301</v>
       </c>
       <c r="E522" s="1" t="s">
@@ -12132,13 +12132,13 @@
       <c r="A523" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="8" t="s">
         <v>523</v>
       </c>
       <c r="C523" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D523" s="7">
+      <c r="D523" s="6">
         <v>711302</v>
       </c>
       <c r="E523" s="1" t="s">
@@ -12149,13 +12149,13 @@
       <c r="A524" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="8" t="s">
         <v>524</v>
       </c>
       <c r="C524" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D524" s="7">
+      <c r="D524" s="6">
         <v>711303</v>
       </c>
       <c r="E524" s="1" t="s">
@@ -12166,13 +12166,13 @@
       <c r="A525" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="8" t="s">
         <v>525</v>
       </c>
       <c r="C525" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D525" s="7">
+      <c r="D525" s="6">
         <v>711304</v>
       </c>
       <c r="E525" s="1" t="s">
@@ -12183,13 +12183,13 @@
       <c r="A526" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="8" t="s">
         <v>466</v>
       </c>
       <c r="C526" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D526" s="7">
+      <c r="D526" s="6">
         <v>711400</v>
       </c>
       <c r="E526" s="1" t="s">
@@ -12200,13 +12200,13 @@
       <c r="A527" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="8" t="s">
         <v>526</v>
       </c>
       <c r="C527" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D527" s="7">
+      <c r="D527" s="6">
         <v>711401</v>
       </c>
       <c r="E527" s="1" t="s">
@@ -12217,13 +12217,13 @@
       <c r="A528" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="8" t="s">
         <v>527</v>
       </c>
       <c r="C528" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D528" s="7">
+      <c r="D528" s="6">
         <v>711500</v>
       </c>
       <c r="E528" s="1" t="s">
@@ -12234,13 +12234,13 @@
       <c r="A529" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="8" t="s">
         <v>528</v>
       </c>
       <c r="C529" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D529" s="7">
+      <c r="D529" s="6">
         <v>711501</v>
       </c>
       <c r="E529" s="1" t="s">
@@ -12251,13 +12251,13 @@
       <c r="A530" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="8" t="s">
         <v>529</v>
       </c>
       <c r="C530" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D530" s="7">
+      <c r="D530" s="6">
         <v>711502</v>
       </c>
       <c r="E530" s="1" t="s">
@@ -12268,13 +12268,13 @@
       <c r="A531" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="8" t="s">
         <v>530</v>
       </c>
       <c r="C531" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D531" s="7">
+      <c r="D531" s="6">
         <v>711503</v>
       </c>
       <c r="E531" s="1" t="s">
@@ -12285,13 +12285,13 @@
       <c r="A532" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="8" t="s">
         <v>531</v>
       </c>
       <c r="C532" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D532" s="7">
+      <c r="D532" s="6">
         <v>711504</v>
       </c>
       <c r="E532" s="1" t="s">
@@ -12302,13 +12302,13 @@
       <c r="A533" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="8" t="s">
         <v>532</v>
       </c>
       <c r="C533" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D533" s="7">
+      <c r="D533" s="6">
         <v>711520</v>
       </c>
       <c r="E533" s="1" t="s">
@@ -12319,13 +12319,13 @@
       <c r="A534" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="8" t="s">
         <v>470</v>
       </c>
       <c r="C534" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D534" s="7">
+      <c r="D534" s="6">
         <v>711600</v>
       </c>
       <c r="E534" s="1" t="s">
@@ -12336,13 +12336,13 @@
       <c r="A535" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B535" s="8" t="s">
         <v>475</v>
       </c>
       <c r="C535" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D535" s="7">
+      <c r="D535" s="6">
         <v>711601</v>
       </c>
       <c r="E535" s="1" t="s">
@@ -12353,13 +12353,13 @@
       <c r="A536" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="8" t="s">
         <v>533</v>
       </c>
       <c r="C536" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D536" s="7">
+      <c r="D536" s="6">
         <v>711700</v>
       </c>
       <c r="E536" s="1" t="s">
@@ -12370,13 +12370,13 @@
       <c r="A537" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="8" t="s">
         <v>534</v>
       </c>
       <c r="C537" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D537" s="7">
+      <c r="D537" s="6">
         <v>711701</v>
       </c>
       <c r="E537" s="1" t="s">
@@ -12387,13 +12387,13 @@
       <c r="A538" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="8" t="s">
         <v>535</v>
       </c>
       <c r="C538" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D538" s="7">
+      <c r="D538" s="6">
         <v>711800</v>
       </c>
       <c r="E538" s="1" t="s">
@@ -12404,13 +12404,13 @@
       <c r="A539" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B539" s="9" t="s">
+      <c r="B539" s="8" t="s">
         <v>536</v>
       </c>
       <c r="C539" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D539" s="7">
+      <c r="D539" s="6">
         <v>711801</v>
       </c>
       <c r="E539" s="1" t="s">
@@ -12421,13 +12421,13 @@
       <c r="A540" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="8" t="s">
         <v>537</v>
       </c>
       <c r="C540" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D540" s="7">
+      <c r="D540" s="6">
         <v>711802</v>
       </c>
       <c r="E540" s="1" t="s">
@@ -12438,13 +12438,13 @@
       <c r="A541" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="8" t="s">
         <v>538</v>
       </c>
       <c r="C541" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D541" s="7">
+      <c r="D541" s="6">
         <v>711803</v>
       </c>
       <c r="E541" s="1" t="s">
@@ -12455,13 +12455,13 @@
       <c r="A542" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="8" t="s">
         <v>539</v>
       </c>
       <c r="C542" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D542" s="7">
+      <c r="D542" s="6">
         <v>711804</v>
       </c>
       <c r="E542" s="1" t="s">
@@ -12472,13 +12472,13 @@
       <c r="A543" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C543" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D543" s="7">
+      <c r="D543" s="6">
         <v>711805</v>
       </c>
       <c r="E543" s="1" t="s">
@@ -12489,13 +12489,13 @@
       <c r="A544" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C544" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D544" s="7">
+      <c r="D544" s="6">
         <v>711806</v>
       </c>
       <c r="E544" s="1" t="s">
@@ -12506,13 +12506,13 @@
       <c r="A545" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C545" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D545" s="7">
+      <c r="D545" s="6">
         <v>711807</v>
       </c>
       <c r="E545" s="1" t="s">
@@ -12523,13 +12523,13 @@
       <c r="A546" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="8" t="s">
         <v>470</v>
       </c>
       <c r="C546" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D546" s="7">
+      <c r="D546" s="6">
         <v>711808</v>
       </c>
       <c r="E546" s="1" t="s">
@@ -12540,13 +12540,13 @@
       <c r="A547" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B547" s="9" t="s">
+      <c r="B547" s="8" t="s">
         <v>500</v>
       </c>
       <c r="C547" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D547" s="7">
+      <c r="D547" s="6">
         <v>711809</v>
       </c>
       <c r="E547" s="1" t="s">
@@ -12557,13 +12557,13 @@
       <c r="A548" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="8" t="s">
         <v>540</v>
       </c>
       <c r="C548" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D548" s="7">
+      <c r="D548" s="6">
         <v>711810</v>
       </c>
       <c r="E548" s="1" t="s">
@@ -12574,13 +12574,13 @@
       <c r="A549" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" s="8" t="s">
         <v>541</v>
       </c>
       <c r="C549" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D549" s="7">
+      <c r="D549" s="6">
         <v>711811</v>
       </c>
       <c r="E549" s="1" t="s">
@@ -12591,13 +12591,13 @@
       <c r="A550" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B550" s="9" t="s">
+      <c r="B550" s="8" t="s">
         <v>497</v>
       </c>
       <c r="C550" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D550" s="7">
+      <c r="D550" s="6">
         <v>711812</v>
       </c>
       <c r="E550" s="1" t="s">
@@ -12608,13 +12608,13 @@
       <c r="A551" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B551" s="9" t="s">
+      <c r="B551" s="8" t="s">
         <v>542</v>
       </c>
       <c r="C551" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D551" s="7">
+      <c r="D551" s="6">
         <v>711813</v>
       </c>
       <c r="E551" s="1" t="s">
@@ -12625,13 +12625,13 @@
       <c r="A552" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B552" s="9" t="s">
+      <c r="B552" s="8" t="s">
         <v>543</v>
       </c>
       <c r="C552" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D552" s="7">
+      <c r="D552" s="6">
         <v>711814</v>
       </c>
       <c r="E552" s="1" t="s">
@@ -12642,13 +12642,13 @@
       <c r="A553" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B553" s="9" t="s">
+      <c r="B553" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C553" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D553" s="7">
+      <c r="D553" s="6">
         <v>711815</v>
       </c>
       <c r="E553" s="1" t="s">
@@ -12659,13 +12659,13 @@
       <c r="A554" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B554" s="9" t="s">
+      <c r="B554" s="8" t="s">
         <v>544</v>
       </c>
       <c r="C554" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D554" s="7">
+      <c r="D554" s="6">
         <v>711816</v>
       </c>
       <c r="E554" s="1" t="s">
@@ -12676,13 +12676,13 @@
       <c r="A555" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B555" s="9" t="s">
+      <c r="B555" s="8" t="s">
         <v>545</v>
       </c>
       <c r="C555" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D555" s="7">
+      <c r="D555" s="6">
         <v>711817</v>
       </c>
       <c r="E555" s="1" t="s">
@@ -12693,13 +12693,13 @@
       <c r="A556" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" s="8" t="s">
         <v>546</v>
       </c>
       <c r="C556" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D556" s="7">
+      <c r="D556" s="6">
         <v>711818</v>
       </c>
       <c r="E556" s="1" t="s">
@@ -12710,13 +12710,13 @@
       <c r="A557" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B557" s="9" t="s">
+      <c r="B557" s="8" t="s">
         <v>547</v>
       </c>
       <c r="C557" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D557" s="7">
+      <c r="D557" s="6">
         <v>711819</v>
       </c>
       <c r="E557" s="1" t="s">
@@ -12727,13 +12727,13 @@
       <c r="A558" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="8" t="s">
         <v>548</v>
       </c>
       <c r="C558" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D558" s="7">
+      <c r="D558" s="6">
         <v>711820</v>
       </c>
       <c r="E558" s="1" t="s">
@@ -12744,13 +12744,13 @@
       <c r="A559" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="8" t="s">
         <v>549</v>
       </c>
       <c r="C559" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D559" s="7">
+      <c r="D559" s="6">
         <v>711821</v>
       </c>
       <c r="E559" s="1" t="s">
@@ -12761,13 +12761,13 @@
       <c r="A560" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="8" t="s">
         <v>550</v>
       </c>
       <c r="C560" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D560" s="7">
+      <c r="D560" s="6">
         <v>711822</v>
       </c>
       <c r="E560" s="1" t="s">
@@ -12778,13 +12778,13 @@
       <c r="A561" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B561" s="9" t="s">
+      <c r="B561" s="8" t="s">
         <v>551</v>
       </c>
       <c r="C561" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D561" s="7">
+      <c r="D561" s="6">
         <v>711823</v>
       </c>
       <c r="E561" s="1" t="s">
@@ -12795,13 +12795,13 @@
       <c r="A562" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B562" s="8" t="s">
         <v>552</v>
       </c>
       <c r="C562" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D562" s="7">
+      <c r="D562" s="6">
         <v>711824</v>
       </c>
       <c r="E562" s="1" t="s">
@@ -12812,13 +12812,13 @@
       <c r="A563" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B563" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C563" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D563" s="7">
+      <c r="D563" s="6">
         <v>720000</v>
       </c>
       <c r="E563" s="1" t="s">
@@ -12829,13 +12829,13 @@
       <c r="A564" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" s="8" t="s">
         <v>452</v>
       </c>
       <c r="C564" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D564" s="7">
+      <c r="D564" s="6">
         <v>721000</v>
       </c>
       <c r="E564" s="1" t="s">
@@ -12846,13 +12846,13 @@
       <c r="A565" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" s="8" t="s">
         <v>452</v>
       </c>
       <c r="C565" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D565" s="7">
+      <c r="D565" s="6">
         <v>721100</v>
       </c>
       <c r="E565" s="1" t="s">
@@ -12863,13 +12863,13 @@
       <c r="A566" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B566" s="9" t="s">
+      <c r="B566" s="8" t="s">
         <v>553</v>
       </c>
       <c r="C566" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D566" s="7">
+      <c r="D566" s="6">
         <v>721101</v>
       </c>
       <c r="E566" s="1" t="s">
@@ -12880,13 +12880,13 @@
       <c r="A567" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B567" s="9" t="s">
+      <c r="B567" s="8" t="s">
         <v>554</v>
       </c>
       <c r="C567" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D567" s="7">
+      <c r="D567" s="6">
         <v>721102</v>
       </c>
       <c r="E567" s="1" t="s">
@@ -12897,13 +12897,13 @@
       <c r="A568" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" s="8" t="s">
         <v>555</v>
       </c>
       <c r="C568" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D568" s="7">
+      <c r="D568" s="6">
         <v>721103</v>
       </c>
       <c r="E568" s="1" t="s">
@@ -12914,13 +12914,13 @@
       <c r="A569" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B569" s="8" t="s">
         <v>556</v>
       </c>
       <c r="C569" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D569" s="7">
+      <c r="D569" s="6">
         <v>721104</v>
       </c>
       <c r="E569" s="1" t="s">
@@ -12931,13 +12931,13 @@
       <c r="A570" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="8" t="s">
         <v>557</v>
       </c>
       <c r="C570" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D570" s="7">
+      <c r="D570" s="6">
         <v>721105</v>
       </c>
       <c r="E570" s="1" t="s">
@@ -12948,13 +12948,13 @@
       <c r="A571" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B571" s="9" t="s">
+      <c r="B571" s="8" t="s">
         <v>558</v>
       </c>
       <c r="C571" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D571" s="7">
+      <c r="D571" s="6">
         <v>721106</v>
       </c>
       <c r="E571" s="1" t="s">
@@ -12965,13 +12965,13 @@
       <c r="A572" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="8" t="s">
         <v>559</v>
       </c>
       <c r="C572" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D572" s="7">
+      <c r="D572" s="6">
         <v>721107</v>
       </c>
       <c r="E572" s="1" t="s">
@@ -12982,13 +12982,13 @@
       <c r="A573" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="8" t="s">
         <v>560</v>
       </c>
       <c r="C573" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D573" s="7">
+      <c r="D573" s="6">
         <v>721108</v>
       </c>
       <c r="E573" s="1" t="s">
@@ -12999,13 +12999,13 @@
       <c r="A574" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="8" t="s">
         <v>561</v>
       </c>
       <c r="C574" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D574" s="7">
+      <c r="D574" s="6">
         <v>721109</v>
       </c>
       <c r="E574" s="1" t="s">
@@ -13016,13 +13016,13 @@
       <c r="A575" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" s="8" t="s">
         <v>562</v>
       </c>
       <c r="C575" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D575" s="7">
+      <c r="D575" s="6">
         <v>721110</v>
       </c>
       <c r="E575" s="1" t="s">
@@ -13033,13 +13033,13 @@
       <c r="A576" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="8" t="s">
         <v>563</v>
       </c>
       <c r="C576" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D576" s="7">
+      <c r="D576" s="6">
         <v>721111</v>
       </c>
       <c r="E576" s="1" t="s">
@@ -13050,13 +13050,13 @@
       <c r="A577" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B577" s="8" t="s">
         <v>564</v>
       </c>
       <c r="C577" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D577" s="7">
+      <c r="D577" s="6">
         <v>721112</v>
       </c>
       <c r="E577" s="1" t="s">
@@ -13067,13 +13067,13 @@
       <c r="A578" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="8" t="s">
         <v>565</v>
       </c>
       <c r="C578" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D578" s="7">
+      <c r="D578" s="6">
         <v>721113</v>
       </c>
       <c r="E578" s="1" t="s">
@@ -13084,13 +13084,13 @@
       <c r="A579" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B579" s="9" t="s">
+      <c r="B579" s="8" t="s">
         <v>566</v>
       </c>
       <c r="C579" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D579" s="7">
+      <c r="D579" s="6">
         <v>721114</v>
       </c>
       <c r="E579" s="1" t="s">
@@ -13101,13 +13101,13 @@
       <c r="A580" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="8" t="s">
         <v>567</v>
       </c>
       <c r="C580" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D580" s="7">
+      <c r="D580" s="6">
         <v>721115</v>
       </c>
       <c r="E580" s="1" t="s">
@@ -13118,13 +13118,13 @@
       <c r="A581" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B581" s="8" t="s">
         <v>568</v>
       </c>
       <c r="C581" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D581" s="7">
+      <c r="D581" s="6">
         <v>721116</v>
       </c>
       <c r="E581" s="1" t="s">
@@ -13135,13 +13135,13 @@
       <c r="A582" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B582" s="9" t="s">
+      <c r="B582" s="8" t="s">
         <v>569</v>
       </c>
       <c r="C582" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D582" s="7">
+      <c r="D582" s="6">
         <v>721117</v>
       </c>
       <c r="E582" s="1" t="s">
@@ -13152,13 +13152,13 @@
       <c r="A583" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B583" s="8" t="s">
         <v>570</v>
       </c>
       <c r="C583" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D583" s="7">
+      <c r="D583" s="6">
         <v>721118</v>
       </c>
       <c r="E583" s="1" t="s">
@@ -13169,13 +13169,13 @@
       <c r="A584" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" s="8" t="s">
         <v>498</v>
       </c>
       <c r="C584" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D584" s="7">
+      <c r="D584" s="6">
         <v>721119</v>
       </c>
       <c r="E584" s="1" t="s">
@@ -13186,13 +13186,13 @@
       <c r="A585" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="8" t="s">
         <v>571</v>
       </c>
       <c r="C585" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D585" s="7">
+      <c r="D585" s="6">
         <v>721120</v>
       </c>
       <c r="E585" s="1" t="s">
@@ -13203,13 +13203,13 @@
       <c r="A586" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="8" t="s">
         <v>572</v>
       </c>
       <c r="C586" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D586" s="7">
+      <c r="D586" s="6">
         <v>721121</v>
       </c>
       <c r="E586" s="1" t="s">
@@ -13220,13 +13220,13 @@
       <c r="A587" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="8" t="s">
         <v>573</v>
       </c>
       <c r="C587" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D587" s="7">
+      <c r="D587" s="6">
         <v>721122</v>
       </c>
       <c r="E587" s="1" t="s">
@@ -13237,13 +13237,13 @@
       <c r="A588" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B588" s="9" t="s">
+      <c r="B588" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C588" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D588" s="7">
+      <c r="D588" s="6">
         <v>721123</v>
       </c>
       <c r="E588" s="1" t="s">
@@ -13254,13 +13254,13 @@
       <c r="A589" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B589" s="9" t="s">
+      <c r="B589" s="8" t="s">
         <v>574</v>
       </c>
       <c r="C589" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D589" s="7">
+      <c r="D589" s="6">
         <v>721124</v>
       </c>
       <c r="E589" s="1" t="s">
@@ -13271,13 +13271,13 @@
       <c r="A590" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="8" t="s">
         <v>575</v>
       </c>
       <c r="C590" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D590" s="7">
+      <c r="D590" s="6">
         <v>721125</v>
       </c>
       <c r="E590" s="1" t="s">
@@ -13288,13 +13288,13 @@
       <c r="A591" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="8" t="s">
         <v>499</v>
       </c>
       <c r="C591" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D591" s="7">
+      <c r="D591" s="6">
         <v>721126</v>
       </c>
       <c r="E591" s="1" t="s">
@@ -13305,13 +13305,13 @@
       <c r="A592" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="8" t="s">
         <v>502</v>
       </c>
       <c r="C592" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D592" s="7">
+      <c r="D592" s="6">
         <v>721127</v>
       </c>
       <c r="E592" s="1" t="s">
@@ -13322,13 +13322,13 @@
       <c r="A593" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="8" t="s">
         <v>503</v>
       </c>
       <c r="C593" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D593" s="7">
+      <c r="D593" s="6">
         <v>721128</v>
       </c>
       <c r="E593" s="1" t="s">
@@ -13339,13 +13339,13 @@
       <c r="A594" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="8" t="s">
         <v>466</v>
       </c>
       <c r="C594" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D594" s="7">
+      <c r="D594" s="6">
         <v>721200</v>
       </c>
       <c r="E594" s="1" t="s">
@@ -13356,13 +13356,13 @@
       <c r="A595" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B595" s="9" t="s">
+      <c r="B595" s="8" t="s">
         <v>467</v>
       </c>
       <c r="C595" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D595" s="7">
+      <c r="D595" s="6">
         <v>721201</v>
       </c>
       <c r="E595" s="1" t="s">
@@ -13373,13 +13373,13 @@
       <c r="A596" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C596" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D596" s="7">
+      <c r="D596" s="6">
         <v>721202</v>
       </c>
       <c r="E596" s="1" t="s">
@@ -13390,13 +13390,13 @@
       <c r="A597" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B597" s="9" t="s">
+      <c r="B597" s="8" t="s">
         <v>576</v>
       </c>
       <c r="C597" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D597" s="7">
+      <c r="D597" s="6">
         <v>721203</v>
       </c>
       <c r="E597" s="1" t="s">
@@ -13407,13 +13407,13 @@
       <c r="A598" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B598" s="8" t="s">
         <v>577</v>
       </c>
       <c r="C598" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D598" s="7">
+      <c r="D598" s="6">
         <v>721204</v>
       </c>
       <c r="E598" s="1" t="s">
@@ -13424,13 +13424,13 @@
       <c r="A599" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="8" t="s">
         <v>550</v>
       </c>
       <c r="C599" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D599" s="7">
+      <c r="D599" s="6">
         <v>721205</v>
       </c>
       <c r="E599" s="1" t="s">
@@ -13441,13 +13441,13 @@
       <c r="A600" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="8" t="s">
         <v>470</v>
       </c>
       <c r="C600" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D600" s="7">
+      <c r="D600" s="6">
         <v>721300</v>
       </c>
       <c r="E600" s="1" t="s">
@@ -13458,13 +13458,13 @@
       <c r="A601" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="8" t="s">
         <v>578</v>
       </c>
       <c r="C601" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D601" s="7">
+      <c r="D601" s="6">
         <v>721301</v>
       </c>
       <c r="E601" s="1" t="s">
@@ -13475,13 +13475,13 @@
       <c r="A602" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B602" s="8" t="s">
         <v>475</v>
       </c>
       <c r="C602" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D602" s="7">
+      <c r="D602" s="6">
         <v>721302</v>
       </c>
       <c r="E602" s="1" t="s">
@@ -13492,13 +13492,13 @@
       <c r="A603" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="8" t="s">
         <v>579</v>
       </c>
       <c r="C603" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D603" s="7">
+      <c r="D603" s="6">
         <v>721304</v>
       </c>
       <c r="E603" s="1" t="s">
@@ -13509,13 +13509,13 @@
       <c r="A604" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B604" s="8" t="s">
         <v>474</v>
       </c>
       <c r="C604" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D604" s="7">
+      <c r="D604" s="6">
         <v>721305</v>
       </c>
       <c r="E604" s="1" t="s">
@@ -13526,13 +13526,13 @@
       <c r="A605" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B605" s="9" t="s">
+      <c r="B605" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C605" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D605" s="7">
+      <c r="D605" s="6">
         <v>721400</v>
       </c>
       <c r="E605" s="1" t="s">
@@ -13543,13 +13543,13 @@
       <c r="A606" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="8" t="s">
         <v>580</v>
       </c>
       <c r="C606" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D606" s="7">
+      <c r="D606" s="6">
         <v>721401</v>
       </c>
       <c r="E606" s="1" t="s">
@@ -13560,13 +13560,13 @@
       <c r="A607" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C607" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D607" s="7">
+      <c r="D607" s="6">
         <v>721402</v>
       </c>
       <c r="E607" s="1" t="s">
@@ -13577,13 +13577,13 @@
       <c r="A608" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="8" t="s">
         <v>581</v>
       </c>
       <c r="C608" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D608" s="7">
+      <c r="D608" s="6">
         <v>721403</v>
       </c>
       <c r="E608" s="1" t="s">
@@ -13594,13 +13594,13 @@
       <c r="A609" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B609" s="9" t="s">
+      <c r="B609" s="8" t="s">
         <v>582</v>
       </c>
       <c r="C609" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D609" s="7">
+      <c r="D609" s="6">
         <v>721404</v>
       </c>
       <c r="E609" s="1" t="s">
@@ -13611,13 +13611,13 @@
       <c r="A610" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="8" t="s">
         <v>583</v>
       </c>
       <c r="C610" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D610" s="7">
+      <c r="D610" s="6">
         <v>721405</v>
       </c>
       <c r="E610" s="1" t="s">
@@ -13628,13 +13628,13 @@
       <c r="A611" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" s="8" t="s">
         <v>482</v>
       </c>
       <c r="C611" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D611" s="7">
+      <c r="D611" s="6">
         <v>721500</v>
       </c>
       <c r="E611" s="1" t="s">
@@ -13645,13 +13645,13 @@
       <c r="A612" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="8" t="s">
         <v>485</v>
       </c>
       <c r="C612" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D612" s="7">
+      <c r="D612" s="6">
         <v>721501</v>
       </c>
       <c r="E612" s="1" t="s">
@@ -13662,13 +13662,13 @@
       <c r="A613" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B613" s="9" t="s">
+      <c r="B613" s="8" t="s">
         <v>584</v>
       </c>
       <c r="C613" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D613" s="7">
+      <c r="D613" s="6">
         <v>721502</v>
       </c>
       <c r="E613" s="1" t="s">
@@ -13679,13 +13679,13 @@
       <c r="A614" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C614" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D614" s="7">
+      <c r="D614" s="6">
         <v>721503</v>
       </c>
       <c r="E614" s="1" t="s">
@@ -13696,13 +13696,13 @@
       <c r="A615" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="8" t="s">
         <v>585</v>
       </c>
       <c r="C615" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D615" s="7">
+      <c r="D615" s="6">
         <v>721504</v>
       </c>
       <c r="E615" s="1" t="s">
@@ -13713,13 +13713,13 @@
       <c r="A616" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" s="8" t="s">
         <v>586</v>
       </c>
       <c r="C616" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D616" s="7">
+      <c r="D616" s="6">
         <v>721600</v>
       </c>
       <c r="E616" s="1" t="s">
@@ -13730,13 +13730,13 @@
       <c r="A617" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C617" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D617" s="7">
+      <c r="D617" s="6">
         <v>721601</v>
       </c>
       <c r="E617" s="1" t="s">
@@ -13747,13 +13747,13 @@
       <c r="A618" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="8" t="s">
         <v>587</v>
       </c>
       <c r="C618" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D618" s="7">
+      <c r="D618" s="6">
         <v>721602</v>
       </c>
       <c r="E618" s="1" t="s">
@@ -13764,13 +13764,13 @@
       <c r="A619" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B619" s="9" t="s">
+      <c r="B619" s="8" t="s">
         <v>588</v>
       </c>
       <c r="C619" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D619" s="7">
+      <c r="D619" s="6">
         <v>721603</v>
       </c>
       <c r="E619" s="1" t="s">
@@ -13781,13 +13781,13 @@
       <c r="A620" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="8" t="s">
         <v>589</v>
       </c>
       <c r="C620" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D620" s="7">
+      <c r="D620" s="6">
         <v>721604</v>
       </c>
       <c r="E620" s="1" t="s">
@@ -13798,13 +13798,13 @@
       <c r="A621" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C621" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D621" s="7">
+      <c r="D621" s="6">
         <v>721605</v>
       </c>
       <c r="E621" s="1" t="s">
@@ -13815,13 +13815,13 @@
       <c r="A622" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C622" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D622" s="7">
+      <c r="D622" s="6">
         <v>721606</v>
       </c>
       <c r="E622" s="1" t="s">
@@ -13832,13 +13832,13 @@
       <c r="A623" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B623" s="9" t="s">
+      <c r="B623" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C623" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D623" s="7">
+      <c r="D623" s="6">
         <v>721607</v>
       </c>
       <c r="E623" s="1" t="s">
@@ -13849,13 +13849,13 @@
       <c r="A624" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="8" t="s">
         <v>590</v>
       </c>
       <c r="C624" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D624" s="7">
+      <c r="D624" s="6">
         <v>721608</v>
       </c>
       <c r="E624" s="1" t="s">
@@ -13866,13 +13866,13 @@
       <c r="A625" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C625" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D625" s="7">
+      <c r="D625" s="6">
         <v>721609</v>
       </c>
       <c r="E625" s="1" t="s">
@@ -13883,13 +13883,13 @@
       <c r="A626" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="8" t="s">
         <v>591</v>
       </c>
       <c r="C626" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D626" s="7">
+      <c r="D626" s="6">
         <v>721700</v>
       </c>
       <c r="E626" s="1" t="s">
@@ -13900,13 +13900,13 @@
       <c r="A627" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="8" t="s">
         <v>592</v>
       </c>
       <c r="C627" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D627" s="7">
+      <c r="D627" s="6">
         <v>721702</v>
       </c>
       <c r="E627" s="1" t="s">
@@ -13917,13 +13917,13 @@
       <c r="A628" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="8" t="s">
         <v>593</v>
       </c>
       <c r="C628" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D628" s="7">
+      <c r="D628" s="6">
         <v>721703</v>
       </c>
       <c r="E628" s="1" t="s">
@@ -13934,13 +13934,13 @@
       <c r="A629" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" s="8" t="s">
         <v>594</v>
       </c>
       <c r="C629" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D629" s="7">
+      <c r="D629" s="6">
         <v>721704</v>
       </c>
       <c r="E629" s="1" t="s">
@@ -13951,13 +13951,13 @@
       <c r="A630" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="8" t="s">
         <v>595</v>
       </c>
       <c r="C630" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D630" s="7">
+      <c r="D630" s="6">
         <v>721705</v>
       </c>
       <c r="E630" s="1" t="s">
@@ -13968,13 +13968,13 @@
       <c r="A631" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B631" s="9" t="s">
+      <c r="B631" s="8" t="s">
         <v>596</v>
       </c>
       <c r="C631" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D631" s="7">
+      <c r="D631" s="6">
         <v>721706</v>
       </c>
       <c r="E631" s="1" t="s">
@@ -13985,13 +13985,13 @@
       <c r="A632" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="8" t="s">
         <v>597</v>
       </c>
       <c r="C632" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D632" s="7">
+      <c r="D632" s="6">
         <v>721720</v>
       </c>
       <c r="E632" s="1" t="s">
@@ -14002,13 +14002,13 @@
       <c r="A633" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B633" s="9" t="s">
+      <c r="B633" s="8" t="s">
         <v>598</v>
       </c>
       <c r="C633" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D633" s="7">
+      <c r="D633" s="6">
         <v>721721</v>
       </c>
       <c r="E633" s="1" t="s">
@@ -14019,13 +14019,13 @@
       <c r="A634" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C634" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D634" s="7">
+      <c r="D634" s="6">
         <v>721722</v>
       </c>
       <c r="E634" s="1" t="s">
@@ -14036,13 +14036,13 @@
       <c r="A635" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B635" s="9" t="s">
+      <c r="B635" s="8" t="s">
         <v>599</v>
       </c>
       <c r="C635" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D635" s="7">
+      <c r="D635" s="6">
         <v>721723</v>
       </c>
       <c r="E635" s="1" t="s">
@@ -14053,13 +14053,13 @@
       <c r="A636" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="8" t="s">
         <v>600</v>
       </c>
       <c r="C636" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D636" s="7">
+      <c r="D636" s="6">
         <v>721724</v>
       </c>
       <c r="E636" s="1" t="s">
@@ -14070,13 +14070,13 @@
       <c r="A637" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B637" s="9" t="s">
+      <c r="B637" s="8" t="s">
         <v>497</v>
       </c>
       <c r="C637" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D637" s="7">
+      <c r="D637" s="6">
         <v>721725</v>
       </c>
       <c r="E637" s="1" t="s">
@@ -14087,13 +14087,13 @@
       <c r="A638" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="8" t="s">
         <v>601</v>
       </c>
       <c r="C638" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D638" s="7">
+      <c r="D638" s="6">
         <v>721799</v>
       </c>
       <c r="E638" s="1" t="s">
@@ -14104,13 +14104,13 @@
       <c r="A639" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="8" t="s">
         <v>500</v>
       </c>
       <c r="C639" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D639" s="7">
+      <c r="D639" s="6">
         <v>721800</v>
       </c>
       <c r="E639" s="1" t="s">
@@ -14121,13 +14121,13 @@
       <c r="A640" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="8" t="s">
         <v>602</v>
       </c>
       <c r="C640" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D640" s="7">
+      <c r="D640" s="6">
         <v>721801</v>
       </c>
       <c r="E640" s="1" t="s">
@@ -14138,13 +14138,13 @@
       <c r="A641" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" s="8" t="s">
         <v>603</v>
       </c>
       <c r="C641" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D641" s="7">
+      <c r="D641" s="6">
         <v>721802</v>
       </c>
       <c r="E641" s="1" t="s">
@@ -14155,13 +14155,13 @@
       <c r="A642" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="8" t="s">
         <v>604</v>
       </c>
       <c r="C642" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D642" s="7">
+      <c r="D642" s="6">
         <v>721803</v>
       </c>
       <c r="E642" s="1" t="s">
@@ -14172,13 +14172,13 @@
       <c r="A643" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B643" s="9" t="s">
+      <c r="B643" s="8" t="s">
         <v>519</v>
       </c>
       <c r="C643" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D643" s="7">
+      <c r="D643" s="6">
         <v>721804</v>
       </c>
       <c r="E643" s="1" t="s">
@@ -14189,13 +14189,13 @@
       <c r="A644" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="8" t="s">
         <v>605</v>
       </c>
       <c r="C644" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D644" s="7">
+      <c r="D644" s="6">
         <v>721805</v>
       </c>
       <c r="E644" s="1" t="s">
@@ -14206,13 +14206,13 @@
       <c r="A645" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="8" t="s">
         <v>606</v>
       </c>
       <c r="C645" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D645" s="7">
+      <c r="D645" s="6">
         <v>730000</v>
       </c>
       <c r="E645" s="1" t="s">
@@ -14223,13 +14223,13 @@
       <c r="A646" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="8" t="s">
         <v>607</v>
       </c>
       <c r="C646" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D646" s="7">
+      <c r="D646" s="6">
         <v>731000</v>
       </c>
       <c r="E646" s="1" t="s">
@@ -14240,13 +14240,13 @@
       <c r="A647" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="8" t="s">
         <v>608</v>
       </c>
       <c r="C647" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D647" s="7">
+      <c r="D647" s="6">
         <v>731101</v>
       </c>
       <c r="E647" s="1" t="s">
@@ -14257,13 +14257,13 @@
       <c r="A648" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="8" t="s">
         <v>609</v>
       </c>
       <c r="C648" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D648" s="7">
+      <c r="D648" s="6">
         <v>731102</v>
       </c>
       <c r="E648" s="1" t="s">
@@ -14274,13 +14274,13 @@
       <c r="A649" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="8" t="s">
         <v>610</v>
       </c>
       <c r="C649" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D649" s="7">
+      <c r="D649" s="6">
         <v>731103</v>
       </c>
       <c r="E649" s="1" t="s">
@@ -14291,13 +14291,13 @@
       <c r="A650" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B650" s="9" t="s">
+      <c r="B650" s="8" t="s">
         <v>611</v>
       </c>
       <c r="C650" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D650" s="7">
+      <c r="D650" s="6">
         <v>731104</v>
       </c>
       <c r="E650" s="1" t="s">
@@ -14308,13 +14308,13 @@
       <c r="A651" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B651" s="9" t="s">
+      <c r="B651" s="8" t="s">
         <v>612</v>
       </c>
       <c r="C651" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D651" s="7">
+      <c r="D651" s="6">
         <v>731105</v>
       </c>
       <c r="E651" s="1" t="s">
@@ -14325,13 +14325,13 @@
       <c r="A652" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="8" t="s">
         <v>613</v>
       </c>
       <c r="C652" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D652" s="7">
+      <c r="D652" s="6">
         <v>731106</v>
       </c>
       <c r="E652" s="1" t="s">
@@ -14342,13 +14342,13 @@
       <c r="A653" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" s="8" t="s">
         <v>614</v>
       </c>
       <c r="C653" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D653" s="7">
+      <c r="D653" s="6">
         <v>732000</v>
       </c>
       <c r="E653" s="1" t="s">
@@ -14359,13 +14359,13 @@
       <c r="A654" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="8" t="s">
         <v>615</v>
       </c>
       <c r="C654" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D654" s="7">
+      <c r="D654" s="6">
         <v>732201</v>
       </c>
       <c r="E654" s="1" t="s">
@@ -14376,13 +14376,13 @@
       <c r="A655" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="8" t="s">
         <v>523</v>
       </c>
       <c r="C655" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D655" s="7">
+      <c r="D655" s="6">
         <v>732202</v>
       </c>
       <c r="E655" s="1" t="s">
@@ -14393,13 +14393,13 @@
       <c r="A656" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" s="8" t="s">
         <v>524</v>
       </c>
       <c r="C656" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D656" s="7">
+      <c r="D656" s="6">
         <v>732203</v>
       </c>
       <c r="E656" s="1" t="s">
@@ -14410,13 +14410,13 @@
       <c r="A657" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C657" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D657" s="7">
+      <c r="D657" s="6">
         <v>732204</v>
       </c>
       <c r="E657" s="1" t="s">
@@ -14427,13 +14427,13 @@
       <c r="A658" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" s="8" t="s">
         <v>616</v>
       </c>
       <c r="C658" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D658" s="7">
+      <c r="D658" s="6">
         <v>732205</v>
       </c>
       <c r="E658" s="1" t="s">
@@ -14444,13 +14444,13 @@
       <c r="A659" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" s="8" t="s">
         <v>617</v>
       </c>
       <c r="C659" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D659" s="7">
+      <c r="D659" s="6">
         <v>732206</v>
       </c>
       <c r="E659" s="1" t="s">
@@ -14461,13 +14461,13 @@
       <c r="A660" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="8" t="s">
         <v>618</v>
       </c>
       <c r="C660" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D660" s="7">
+      <c r="D660" s="6">
         <v>732207</v>
       </c>
       <c r="E660" s="1" t="s">
@@ -14478,13 +14478,13 @@
       <c r="A661" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" s="8" t="s">
         <v>619</v>
       </c>
       <c r="C661" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D661" s="7">
+      <c r="D661" s="6">
         <v>733000</v>
       </c>
       <c r="E661" s="1" t="s">
@@ -14495,13 +14495,13 @@
       <c r="A662" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="8" t="s">
         <v>620</v>
       </c>
       <c r="C662" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D662" s="7">
+      <c r="D662" s="6">
         <v>733001</v>
       </c>
       <c r="E662" s="1" t="s">
@@ -14512,13 +14512,13 @@
       <c r="A663" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C663" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D663" s="7">
+      <c r="D663" s="6">
         <v>733302</v>
       </c>
       <c r="E663" s="1" t="s">
@@ -14529,13 +14529,13 @@
       <c r="A664" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" s="8" t="s">
         <v>545</v>
       </c>
       <c r="C664" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D664" s="7">
+      <c r="D664" s="6">
         <v>733303</v>
       </c>
       <c r="E664" s="1" t="s">
@@ -14546,13 +14546,13 @@
       <c r="A665" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" s="8" t="s">
         <v>621</v>
       </c>
       <c r="C665" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D665" s="7">
+      <c r="D665" s="6">
         <v>733304</v>
       </c>
       <c r="E665" s="1" t="s">
@@ -14563,13 +14563,13 @@
       <c r="A666" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C666" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D666" s="7">
+      <c r="D666" s="6">
         <v>733305</v>
       </c>
       <c r="E666" s="1" t="s">
@@ -14580,13 +14580,13 @@
       <c r="A667" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="8" t="s">
         <v>622</v>
       </c>
       <c r="C667" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D667" s="7">
+      <c r="D667" s="6">
         <v>733306</v>
       </c>
       <c r="E667" s="1" t="s">
@@ -14597,13 +14597,13 @@
       <c r="A668" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C668" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D668" s="7">
+      <c r="D668" s="6">
         <v>733307</v>
       </c>
       <c r="E668" s="1" t="s">
@@ -14614,13 +14614,13 @@
       <c r="A669" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="8" t="s">
         <v>623</v>
       </c>
       <c r="C669" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D669" s="7">
+      <c r="D669" s="6">
         <v>733308</v>
       </c>
       <c r="E669" s="1" t="s">
@@ -14631,13 +14631,13 @@
       <c r="A670" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B670" s="9" t="s">
+      <c r="B670" s="8" t="s">
         <v>534</v>
       </c>
       <c r="C670" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D670" s="7">
+      <c r="D670" s="6">
         <v>733309</v>
       </c>
       <c r="E670" s="1" t="s">
@@ -14648,13 +14648,13 @@
       <c r="A671" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C671" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D671" s="7">
+      <c r="D671" s="6">
         <v>733310</v>
       </c>
       <c r="E671" s="1" t="s">
@@ -14665,13 +14665,13 @@
       <c r="A672" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="8" t="s">
         <v>624</v>
       </c>
       <c r="C672" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D672" s="7">
+      <c r="D672" s="6">
         <v>733311</v>
       </c>
       <c r="E672" s="1" t="s">
@@ -14682,13 +14682,13 @@
       <c r="A673" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C673" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D673" s="7">
+      <c r="D673" s="6">
         <v>733312</v>
       </c>
       <c r="E673" s="1" t="s">
@@ -14699,13 +14699,13 @@
       <c r="A674" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B674" s="9" t="s">
+      <c r="B674" s="8" t="s">
         <v>625</v>
       </c>
       <c r="C674" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D674" s="7">
+      <c r="D674" s="6">
         <v>733313</v>
       </c>
       <c r="E674" s="1" t="s">
@@ -14716,13 +14716,13 @@
       <c r="A675" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="8" t="s">
         <v>626</v>
       </c>
       <c r="C675" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D675" s="7">
+      <c r="D675" s="6">
         <v>733314</v>
       </c>
       <c r="E675" s="1" t="s">
@@ -14733,13 +14733,13 @@
       <c r="A676" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="8" t="s">
         <v>627</v>
       </c>
       <c r="C676" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D676" s="7">
+      <c r="D676" s="6">
         <v>733315</v>
       </c>
       <c r="E676" s="1" t="s">
@@ -14750,13 +14750,13 @@
       <c r="A677" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C677" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D677" s="7">
+      <c r="D677" s="6">
         <v>733316</v>
       </c>
       <c r="E677" s="1" t="s">
@@ -14767,13 +14767,13 @@
       <c r="A678" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C678" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D678" s="7">
+      <c r="D678" s="6">
         <v>733317</v>
       </c>
       <c r="E678" s="1" t="s">
@@ -14784,13 +14784,13 @@
       <c r="A679" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B679" s="9" t="s">
+      <c r="B679" s="8" t="s">
         <v>467</v>
       </c>
       <c r="C679" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D679" s="7">
+      <c r="D679" s="6">
         <v>733318</v>
       </c>
       <c r="E679" s="1" t="s">
@@ -14801,13 +14801,13 @@
       <c r="A680" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" s="8" t="s">
         <v>628</v>
       </c>
       <c r="C680" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D680" s="7">
+      <c r="D680" s="6">
         <v>733319</v>
       </c>
       <c r="E680" s="1" t="s">
@@ -14818,13 +14818,13 @@
       <c r="A681" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" s="8" t="s">
         <v>629</v>
       </c>
       <c r="C681" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D681" s="7">
+      <c r="D681" s="6">
         <v>733320</v>
       </c>
       <c r="E681" s="1" t="s">
@@ -14835,13 +14835,13 @@
       <c r="A682" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C682" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D682" s="7">
+      <c r="D682" s="6">
         <v>733321</v>
       </c>
       <c r="E682" s="1" t="s">
@@ -14852,13 +14852,13 @@
       <c r="A683" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="8" t="s">
         <v>630</v>
       </c>
       <c r="C683" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D683" s="7">
+      <c r="D683" s="6">
         <v>733322</v>
       </c>
       <c r="E683" s="1" t="s">
@@ -14869,13 +14869,13 @@
       <c r="A684" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="8" t="s">
         <v>631</v>
       </c>
       <c r="C684" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D684" s="7">
+      <c r="D684" s="6">
         <v>733323</v>
       </c>
       <c r="E684" s="1" t="s">
@@ -14886,13 +14886,13 @@
       <c r="A685" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="8" t="s">
         <v>632</v>
       </c>
       <c r="C685" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D685" s="7">
+      <c r="D685" s="6">
         <v>733324</v>
       </c>
       <c r="E685" s="1" t="s">
@@ -14903,13 +14903,13 @@
       <c r="A686" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C686" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D686" s="7">
+      <c r="D686" s="6">
         <v>733325</v>
       </c>
       <c r="E686" s="1" t="s">
@@ -14920,13 +14920,13 @@
       <c r="A687" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="8" t="s">
         <v>633</v>
       </c>
       <c r="C687" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D687" s="7">
+      <c r="D687" s="6">
         <v>733326</v>
       </c>
       <c r="E687" s="1" t="s">
@@ -14937,13 +14937,13 @@
       <c r="A688" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="8" t="s">
         <v>634</v>
       </c>
       <c r="C688" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D688" s="7">
+      <c r="D688" s="6">
         <v>733327</v>
       </c>
       <c r="E688" s="1" t="s">
@@ -14954,13 +14954,13 @@
       <c r="A689" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B689" s="9" t="s">
+      <c r="B689" s="8" t="s">
         <v>635</v>
       </c>
       <c r="C689" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D689" s="7">
+      <c r="D689" s="6">
         <v>733328</v>
       </c>
       <c r="E689" s="1" t="s">
@@ -14971,13 +14971,13 @@
       <c r="A690" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" s="8" t="s">
         <v>636</v>
       </c>
       <c r="C690" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D690" s="7">
+      <c r="D690" s="6">
         <v>733329</v>
       </c>
       <c r="E690" s="1" t="s">
@@ -14988,13 +14988,13 @@
       <c r="A691" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="8" t="s">
         <v>637</v>
       </c>
       <c r="C691" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D691" s="7">
+      <c r="D691" s="6">
         <v>733330</v>
       </c>
       <c r="E691" s="1" t="s">
@@ -15005,13 +15005,13 @@
       <c r="A692" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="8" t="s">
         <v>638</v>
       </c>
       <c r="C692" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D692" s="7">
+      <c r="D692" s="6">
         <v>733331</v>
       </c>
       <c r="E692" s="1" t="s">
@@ -15022,13 +15022,13 @@
       <c r="A693" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B693" s="9" t="s">
+      <c r="B693" s="8" t="s">
         <v>639</v>
       </c>
       <c r="C693" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D693" s="7">
+      <c r="D693" s="6">
         <v>733332</v>
       </c>
       <c r="E693" s="1" t="s">
@@ -15039,13 +15039,13 @@
       <c r="A694" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="8" t="s">
         <v>640</v>
       </c>
       <c r="C694" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D694" s="7">
+      <c r="D694" s="6">
         <v>733333</v>
       </c>
       <c r="E694" s="1" t="s">
@@ -15056,13 +15056,13 @@
       <c r="A695" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C695" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D695" s="7">
+      <c r="D695" s="6">
         <v>733334</v>
       </c>
       <c r="E695" s="1" t="s">
@@ -15073,13 +15073,13 @@
       <c r="A696" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="8" t="s">
         <v>641</v>
       </c>
       <c r="C696" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D696" s="7">
+      <c r="D696" s="6">
         <v>800000</v>
       </c>
       <c r="E696" s="1" t="s">
@@ -15090,13 +15090,13 @@
       <c r="A697" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B697" s="9" t="s">
+      <c r="B697" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C697" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D697" s="7">
+      <c r="D697" s="6">
         <v>810000</v>
       </c>
       <c r="E697" s="1" t="s">
@@ -15107,13 +15107,13 @@
       <c r="A698" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B698" s="9" t="s">
+      <c r="B698" s="8" t="s">
         <v>642</v>
       </c>
       <c r="C698" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D698" s="7">
+      <c r="D698" s="6">
         <v>811100</v>
       </c>
       <c r="E698" s="1" t="s">
@@ -15124,13 +15124,13 @@
       <c r="A699" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B699" s="9" t="s">
+      <c r="B699" s="8" t="s">
         <v>643</v>
       </c>
       <c r="C699" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D699" s="7">
+      <c r="D699" s="6">
         <v>811200</v>
       </c>
       <c r="E699" s="1" t="s">
@@ -15141,13 +15141,13 @@
       <c r="A700" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B700" s="9" t="s">
+      <c r="B700" s="8" t="s">
         <v>644</v>
       </c>
       <c r="C700" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D700" s="7">
+      <c r="D700" s="6">
         <v>811300</v>
       </c>
       <c r="E700" s="1" t="s">
@@ -15158,13 +15158,13 @@
       <c r="A701" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B701" s="9" t="s">
+      <c r="B701" s="8" t="s">
         <v>645</v>
       </c>
       <c r="C701" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D701" s="7">
+      <c r="D701" s="6">
         <v>811400</v>
       </c>
       <c r="E701" s="1" t="s">
@@ -15175,13 +15175,13 @@
       <c r="A702" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="8" t="s">
         <v>646</v>
       </c>
       <c r="C702" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D702" s="7">
+      <c r="D702" s="6">
         <v>811500</v>
       </c>
       <c r="E702" s="1" t="s">
@@ -15192,13 +15192,13 @@
       <c r="A703" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B703" s="9" t="s">
+      <c r="B703" s="8" t="s">
         <v>647</v>
       </c>
       <c r="C703" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D703" s="7">
+      <c r="D703" s="6">
         <v>811600</v>
       </c>
       <c r="E703" s="1" t="s">
@@ -15209,13 +15209,13 @@
       <c r="A704" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="8" t="s">
         <v>648</v>
       </c>
       <c r="C704" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D704" s="7">
+      <c r="D704" s="6">
         <v>900000</v>
       </c>
       <c r="E704" s="1" t="s">
@@ -15226,13 +15226,13 @@
       <c r="A705" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="8" t="s">
         <v>649</v>
       </c>
       <c r="C705" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D705" s="7">
+      <c r="D705" s="6">
         <v>910000</v>
       </c>
       <c r="E705" s="1" t="s">
@@ -15243,13 +15243,13 @@
       <c r="A706" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C706" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D706" s="7">
+      <c r="D706" s="6">
         <v>911100</v>
       </c>
       <c r="E706" s="1" t="s">
@@ -15260,13 +15260,13 @@
       <c r="A707" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" s="8" t="s">
         <v>650</v>
       </c>
       <c r="C707" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D707" s="7">
+      <c r="D707" s="6">
         <v>911200</v>
       </c>
       <c r="E707" s="1" t="s">
@@ -15277,13 +15277,13 @@
       <c r="A708" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="8" t="s">
         <v>651</v>
       </c>
       <c r="C708" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D708" s="7">
+      <c r="D708" s="6">
         <v>911300</v>
       </c>
       <c r="E708" s="1" t="s">
@@ -15294,13 +15294,13 @@
       <c r="A709" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B709" s="9" t="s">
+      <c r="B709" s="8" t="s">
         <v>652</v>
       </c>
       <c r="C709" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D709" s="7">
+      <c r="D709" s="6">
         <v>911400</v>
       </c>
       <c r="E709" s="1" t="s">
@@ -15311,13 +15311,13 @@
       <c r="A710" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" s="8" t="s">
         <v>653</v>
       </c>
       <c r="C710" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D710" s="7">
+      <c r="D710" s="6">
         <v>911500</v>
       </c>
       <c r="E710" s="1" t="s">
@@ -15328,13 +15328,13 @@
       <c r="A711" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" s="8" t="s">
         <v>653</v>
       </c>
       <c r="C711" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D711" s="7">
+      <c r="D711" s="6">
         <v>912000</v>
       </c>
       <c r="E711" s="1" t="s">
@@ -15345,13 +15345,13 @@
       <c r="A712" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B712" s="9" t="s">
+      <c r="B712" s="8" t="s">
         <v>654</v>
       </c>
       <c r="C712" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D712" s="7">
+      <c r="D712" s="6">
         <v>912001</v>
       </c>
       <c r="E712" s="1" t="s">
@@ -15362,13 +15362,13 @@
       <c r="A713" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B713" s="9" t="s">
+      <c r="B713" s="8" t="s">
         <v>655</v>
       </c>
       <c r="C713" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D713" s="7">
+      <c r="D713" s="6">
         <v>912002</v>
       </c>
       <c r="E713" s="1" t="s">
@@ -15379,13 +15379,13 @@
       <c r="A714" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B714" s="9" t="s">
+      <c r="B714" s="8" t="s">
         <v>656</v>
       </c>
       <c r="C714" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D714" s="7">
+      <c r="D714" s="6">
         <v>912003</v>
       </c>
       <c r="E714" s="1" t="s">
@@ -15396,13 +15396,13 @@
       <c r="A715" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B715" s="9" t="s">
+      <c r="B715" s="8" t="s">
         <v>657</v>
       </c>
       <c r="C715" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D715" s="7">
+      <c r="D715" s="6">
         <v>912004</v>
       </c>
       <c r="E715" s="1" t="s">
@@ -15413,13 +15413,13 @@
       <c r="A716" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="8" t="s">
         <v>658</v>
       </c>
       <c r="C716" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D716" s="7">
+      <c r="D716" s="6">
         <v>912005</v>
       </c>
       <c r="E716" s="1" t="s">
@@ -15430,13 +15430,13 @@
       <c r="A717" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" s="8" t="s">
         <v>659</v>
       </c>
       <c r="C717" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D717" s="7">
+      <c r="D717" s="6">
         <v>920000</v>
       </c>
       <c r="E717" s="1" t="s">
@@ -15447,13 +15447,13 @@
       <c r="A718" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="8" t="s">
         <v>506</v>
       </c>
       <c r="C718" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D718" s="7">
+      <c r="D718" s="6">
         <v>921000</v>
       </c>
       <c r="E718" s="1" t="s">
@@ -15464,13 +15464,13 @@
       <c r="A719" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B719" s="9" t="s">
+      <c r="B719" s="8" t="s">
         <v>660</v>
       </c>
       <c r="C719" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D719" s="7">
+      <c r="D719" s="6">
         <v>921100</v>
       </c>
       <c r="E719" s="1" t="s">
@@ -15481,13 +15481,13 @@
       <c r="A720" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C720" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D720" s="7">
+      <c r="D720" s="6">
         <v>921200</v>
       </c>
       <c r="E720" s="1" t="s">
@@ -15498,13 +15498,13 @@
       <c r="A721" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B721" s="9" t="s">
+      <c r="B721" s="8" t="s">
         <v>661</v>
       </c>
       <c r="C721" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D721" s="7">
+      <c r="D721" s="6">
         <v>921300</v>
       </c>
       <c r="E721" s="1" t="s">
@@ -15515,13 +15515,13 @@
       <c r="A722" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" s="8" t="s">
         <v>662</v>
       </c>
       <c r="C722" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D722" s="7">
+      <c r="D722" s="6">
         <v>921400</v>
       </c>
       <c r="E722" s="1" t="s">
@@ -15532,13 +15532,13 @@
       <c r="A723" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B723" s="9" t="s">
+      <c r="B723" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C723" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D723" s="7">
+      <c r="D723" s="6">
         <v>921499</v>
       </c>
       <c r="E723" s="1" t="s">
